--- a/balkan-plus.xlsx
+++ b/balkan-plus.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="332">
   <si>
     <t>#EXTM3U x-tvg-url=""</t>
   </si>
@@ -130,9 +130,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>#EXTINF:-1,</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tvg-country="</t>
   </si>
   <si>
@@ -1084,9 +1081,6 @@
     <t>http://api.toonamiaftermath.com:3000/pst/playlist.m3u8</t>
   </si>
   <si>
-    <t>UN</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -1097,6 +1091,12 @@
   </si>
   <si>
     <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>#EXTINF:-1</t>
+  </si>
+  <si>
+    <t>not working</t>
   </si>
 </sst>
 </file>
@@ -1436,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1477,13 +1477,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -1498,3728 +1498,3684 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>308</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>309</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>309</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>308</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>309</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" t="s">
         <v>60</v>
       </c>
-      <c r="K16" t="s">
-        <v>61</v>
-      </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
         <v>60</v>
       </c>
-      <c r="K18" t="s">
-        <v>61</v>
-      </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N32" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>313</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="L47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N50" t="s">
-        <v>18</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N51" t="s">
-        <v>18</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>111</v>
+        <v>17</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>60</v>
       </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="L54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>60</v>
       </c>
       <c r="L55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="K58" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K59" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="L62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N63" t="s">
-        <v>18</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>139</v>
+        <v>17</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N64" t="s">
-        <v>18</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
+        <v>60</v>
       </c>
       <c r="L66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="L67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N70" t="s">
-        <v>18</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>153</v>
+        <v>17</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>322</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>60</v>
       </c>
       <c r="L71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N71" t="s">
-        <v>18</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>155</v>
+        <v>17</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" t="s">
-        <v>323</v>
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N72" t="s">
-        <v>18</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>325</v>
+        <v>17</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>156</v>
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>323</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N73" t="s">
-        <v>18</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" t="s">
-        <v>324</v>
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="L74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N74" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>326</v>
+        <v>17</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="L77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="L78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="L79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>168</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="L83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="L84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I88" t="s">
-        <v>17</v>
-      </c>
-      <c r="L88" t="s">
-        <v>18</v>
-      </c>
-      <c r="M88" t="s">
-        <v>309</v>
-      </c>
-      <c r="N88" t="s">
-        <v>18</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O89" s="5"/>
+      <c r="O88" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1">
@@ -5242,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O28"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5257,380 +5213,427 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
         <v>185</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
         <v>188</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>189</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
         <v>191</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
         <v>194</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>195</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>196</v>
-      </c>
-      <c r="D5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
         <v>198</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
         <v>201</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>202</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>203</v>
-      </c>
-      <c r="D7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
         <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" t="s">
         <v>209</v>
       </c>
-      <c r="C10" t="s">
-        <v>210</v>
-      </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>212</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>213</v>
-      </c>
-      <c r="E11" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
         <v>215</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>216</v>
-      </c>
-      <c r="D12" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" t="s">
         <v>218</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
         <v>220</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>221</v>
-      </c>
-      <c r="D14" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
         <v>223</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="C15" t="s">
-        <v>225</v>
-      </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
         <v>226</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>227</v>
-      </c>
-      <c r="D16" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
         <v>229</v>
       </c>
-      <c r="C17" t="s">
-        <v>230</v>
-      </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" t="s">
         <v>231</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
         <v>234</v>
       </c>
-      <c r="C19" t="s">
-        <v>235</v>
-      </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
         <v>152</v>
       </c>
-      <c r="C20" t="s">
-        <v>153</v>
-      </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
         <v>237</v>
       </c>
-      <c r="C21" t="s">
-        <v>238</v>
-      </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" t="s">
         <v>239</v>
       </c>
-      <c r="C22" t="s">
-        <v>240</v>
-      </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
         <v>241</v>
       </c>
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" t="s">
         <v>243</v>
       </c>
-      <c r="C24" t="s">
-        <v>244</v>
-      </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
         <v>245</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>246</v>
-      </c>
-      <c r="D25" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" t="s">
         <v>248</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>249</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>250</v>
-      </c>
-      <c r="D26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" t="s">
         <v>252</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>253</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
         <v>254</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>310</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>308</v>
+      </c>
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" t="s">
         <v>120</v>
       </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" t="s">
-        <v>311</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" t="s">
-        <v>309</v>
-      </c>
-      <c r="N28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" t="s">
-        <v>121</v>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>308</v>
+      </c>
+      <c r="N29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5663,100 +5666,100 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
         <v>256</v>
       </c>
-      <c r="C1" t="s">
-        <v>257</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
         <v>259</v>
-      </c>
-      <c r="C3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
         <v>263</v>
-      </c>
-      <c r="C5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
         <v>265</v>
-      </c>
-      <c r="C6" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>269</v>
       </c>
-      <c r="C9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>270</v>
-      </c>
-      <c r="J9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" t="s">
         <v>306</v>
-      </c>
-      <c r="C10" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5788,111 +5791,111 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
         <v>272</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>273</v>
-      </c>
-      <c r="C1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" t="s">
         <v>275</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>276</v>
       </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
         <v>278</v>
       </c>
-      <c r="C3" t="s">
-        <v>279</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
         <v>280</v>
       </c>
-      <c r="C4" t="s">
-        <v>281</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" t="s">
         <v>282</v>
       </c>
-      <c r="C5" t="s">
-        <v>283</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
         <v>284</v>
       </c>
-      <c r="C6" t="s">
-        <v>285</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
         <v>286</v>
       </c>
-      <c r="C7" t="s">
-        <v>287</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
         <v>288</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>289</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>290</v>
-      </c>
-      <c r="D8" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5921,13 +5924,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/balkan-plus.xlsx
+++ b/balkan-plus.xlsx
@@ -1457,7 +1457,7 @@
   <dimension ref="B1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/balkan-plus.xlsx
+++ b/balkan-plus.xlsx
@@ -994,15 +994,6 @@
     <t>ADD TO NAME</t>
   </si>
   <si>
-    <t>.(720p)</t>
-  </si>
-  <si>
-    <t>.(540p)</t>
-  </si>
-  <si>
-    <t>.(480p)</t>
-  </si>
-  <si>
     <t>AL JAZEERA BALKANS</t>
   </si>
   <si>
@@ -1021,9 +1012,6 @@
     <t>MOVIESPHERE</t>
   </si>
   <si>
-    <t>MOVIESPHERE (ENGLAND)</t>
-  </si>
-  <si>
     <t>MOVIESPHERE FREE</t>
   </si>
   <si>
@@ -1039,9 +1027,6 @@
     <t>RADIO S TV</t>
   </si>
   <si>
-    <t>RAKUTEN ACTION MOVIES UK (720P)</t>
-  </si>
-  <si>
     <t>RAKUTEN COMEDY MOVIES UK</t>
   </si>
   <si>
@@ -1099,9 +1084,6 @@
     <t>VESELJAK TV</t>
   </si>
   <si>
-    <t>.HD</t>
-  </si>
-  <si>
     <t>HRT 1</t>
   </si>
   <si>
@@ -1115,13 +1097,31 @@
   </si>
   <si>
     <t>IDJ TV</t>
+  </si>
+  <si>
+    <t>RAKUTEN ACTION MOVIES UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (HD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (720p)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (540p)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (480p)</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE ENGLAND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1137,6 +1137,12 @@
     <font>
       <sz val="10"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="0.59999389629810485"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1168,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1176,6 +1182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1469,7 +1476,8 @@
     <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" customWidth="1"/>
     <col min="13" max="14" width="4.140625" customWidth="1"/>
@@ -1552,7 +1560,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -1640,7 +1648,7 @@
         <v>214</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -2026,7 +2034,7 @@
       <c r="H13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K13" t="s">
@@ -2112,10 +2120,10 @@
         <v>7</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="K15" t="s">
         <v>8</v>
@@ -2162,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
@@ -2212,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K17" t="s">
         <v>8</v>
@@ -2262,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K18" t="s">
         <v>8</v>
@@ -2312,7 +2320,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
@@ -2353,10 +2361,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
@@ -2441,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>8</v>
@@ -2485,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>8</v>
@@ -2526,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K24" t="s">
         <v>8</v>
@@ -2608,7 +2616,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K26" t="s">
         <v>8</v>
@@ -2652,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K27" t="s">
         <v>8</v>
@@ -2696,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K28" t="s">
         <v>8</v>
@@ -2740,10 +2748,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K29" t="s">
         <v>8</v>
@@ -2787,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
         <v>8</v>
@@ -3270,7 +3278,7 @@
       <c r="H41" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J41" s="2"/>
@@ -3483,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K46" t="s">
         <v>8</v>
@@ -3524,7 +3532,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K47" t="s">
         <v>8</v>
@@ -3565,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s">
         <v>8</v>
@@ -3606,10 +3614,10 @@
         <v>7</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s">
         <v>8</v>
@@ -3650,10 +3658,10 @@
         <v>7</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K50" t="s">
         <v>8</v>
@@ -3738,7 +3746,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K52" t="s">
         <v>8</v>
@@ -4040,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K59" t="s">
         <v>8</v>
@@ -4084,7 +4092,7 @@
         <v>7</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K60" t="s">
         <v>8</v>
@@ -4125,7 +4133,7 @@
         <v>7</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K61" t="s">
         <v>8</v>
@@ -4207,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K63" t="s">
         <v>8</v>
@@ -4292,10 +4300,10 @@
         <v>7</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K65" t="s">
         <v>8</v>
@@ -4336,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K66" t="s">
         <v>8</v>
@@ -4459,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -4504,10 +4512,10 @@
         <v>7</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K70" t="s">
         <v>8</v>
@@ -4551,7 +4559,7 @@
         <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
@@ -4596,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K72" t="s">
         <v>8</v>
@@ -4719,7 +4727,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K75" t="s">
         <v>8</v>
@@ -4763,7 +4771,7 @@
         <v>7</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K76" t="s">
         <v>8</v>
@@ -4886,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K79" t="s">
         <v>8</v>
@@ -4927,10 +4935,10 @@
         <v>7</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K80" t="s">
         <v>8</v>
@@ -4971,10 +4979,10 @@
         <v>7</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K81" t="s">
         <v>8</v>
@@ -5015,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K82" t="s">
         <v>8</v>
@@ -5056,7 +5064,7 @@
         <v>7</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K83" t="s">
         <v>8</v>

--- a/balkan-plus.xlsx
+++ b/balkan-plus.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'not ok'!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ok!$B$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1670785148" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="339">
   <si>
     <t>#EXTM3U x-tvg-url=""</t>
   </si>
@@ -1115,6 +1115,9 @@
   </si>
   <si>
     <t>MOVIESPHERE ENGLAND</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -2049,7 +2052,7 @@
       <c r="P13" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2061,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -2076,13 +2079,19 @@
         <v>7</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="K14" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
       </c>
       <c r="N14" t="s">
         <v>9</v>
@@ -2094,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
@@ -2120,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>333</v>
@@ -2144,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -2170,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>333</v>
@@ -2194,7 +2203,7 @@
         <v>9</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -2220,7 +2229,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>333</v>
@@ -2244,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
@@ -2264,26 +2273,17 @@
         <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="K18" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
       <c r="N18" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -2320,7 +2320,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>298</v>
+        <v>331</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
@@ -2335,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
@@ -2346,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -2355,20 +2358,20 @@
         <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
       </c>
+      <c r="L20" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="N20" t="s">
         <v>9</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>9</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
@@ -2390,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -2405,7 +2408,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="K21" t="s">
         <v>8</v>
@@ -2423,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
@@ -2443,20 +2446,17 @@
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
         <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="N22" t="s">
         <v>9</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>7</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K23" t="s">
         <v>8</v>
@@ -2508,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
@@ -2519,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -2528,13 +2528,13 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
         <v>8</v>
@@ -2549,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
@@ -2560,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -2569,17 +2569,20 @@
         <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="K25" t="s">
         <v>8</v>
       </c>
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
       <c r="N25" t="s">
         <v>9</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
@@ -2618,6 +2621,9 @@
       <c r="I26" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="K26" t="s">
         <v>8</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
@@ -2748,10 +2754,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
         <v>8</v>
@@ -2769,7 +2772,7 @@
         <v>9</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
@@ -2780,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -2789,19 +2792,19 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
         <v>8</v>
       </c>
-      <c r="M30" t="s">
-        <v>50</v>
+      <c r="L30" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N30" t="s">
         <v>9</v>
@@ -2812,8 +2815,8 @@
       <c r="P30" t="s">
         <v>9</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>72</v>
+      <c r="Q30" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -2839,7 +2842,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
         <v>8</v>
@@ -2857,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
@@ -2883,7 +2886,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s">
         <v>8</v>
@@ -2901,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
@@ -2927,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s">
         <v>8</v>
@@ -2945,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
@@ -2971,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
         <v>8</v>
@@ -2989,7 +2992,7 @@
         <v>9</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
@@ -3015,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s">
         <v>8</v>
@@ -3033,7 +3036,7 @@
         <v>9</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
@@ -3059,7 +3062,7 @@
         <v>7</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s">
         <v>8</v>
@@ -3077,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
@@ -3103,7 +3106,7 @@
         <v>7</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K37" t="s">
         <v>8</v>
@@ -3121,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
@@ -3147,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
         <v>8</v>
@@ -3165,7 +3168,7 @@
         <v>9</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
@@ -3191,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K39" t="s">
         <v>8</v>
@@ -3209,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
@@ -3235,8 +3238,9 @@
         <v>7</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>9</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
@@ -3279,9 +3283,8 @@
         <v>7</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J41" s="2"/>
+        <v>249</v>
+      </c>
       <c r="K41" t="s">
         <v>8</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>9</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
@@ -3309,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -3318,20 +3321,17 @@
         <v>5</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H42" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="N42" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>9</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
@@ -3353,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -3368,7 +3368,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s">
         <v>8</v>
@@ -3383,7 +3383,7 @@
         <v>9</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
@@ -3394,7 +3394,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -3409,7 +3409,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s">
         <v>8</v>
@@ -3424,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
@@ -3444,13 +3444,13 @@
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
         <v>7</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s">
         <v>8</v>
@@ -3464,8 +3464,8 @@
       <c r="P45" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>78</v>
+      <c r="Q45" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
@@ -3491,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K46" t="s">
         <v>8</v>
@@ -3506,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
@@ -3526,13 +3526,13 @@
         <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
         <v>7</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s">
         <v>8</v>
@@ -3546,8 +3546,8 @@
       <c r="P47" t="s">
         <v>9</v>
       </c>
-      <c r="Q47" s="1" t="s">
-        <v>82</v>
+      <c r="Q47" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
         <v>4</v>
@@ -3567,13 +3567,16 @@
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>307</v>
+        <v>332</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="K48" t="s">
         <v>8</v>
@@ -3587,8 +3590,8 @@
       <c r="P48" t="s">
         <v>9</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>83</v>
+      <c r="Q48" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
@@ -3614,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>334</v>
@@ -3632,7 +3635,7 @@
         <v>9</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
@@ -3643,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -3652,20 +3655,20 @@
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s">
         <v>8</v>
       </c>
+      <c r="M50" t="s">
+        <v>50</v>
+      </c>
       <c r="N50" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>9</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
@@ -3687,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -3696,20 +3699,17 @@
         <v>5</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="K51" t="s">
         <v>8</v>
       </c>
-      <c r="M51" t="s">
-        <v>50</v>
-      </c>
       <c r="N51" t="s">
         <v>9</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>9</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
@@ -3731,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -3740,17 +3740,20 @@
         <v>5</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s">
         <v>8</v>
       </c>
+      <c r="M52" t="s">
+        <v>50</v>
+      </c>
       <c r="N52" t="s">
         <v>9</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>9</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
@@ -3787,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s">
         <v>8</v>
@@ -3805,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -3825,13 +3828,13 @@
         <v>5</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s">
         <v>8</v>
@@ -3849,7 +3852,7 @@
         <v>9</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
@@ -3860,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -3869,19 +3872,22 @@
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
         <v>7</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s">
         <v>8</v>
       </c>
+      <c r="L55" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N55" t="s">
         <v>9</v>
@@ -3893,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
@@ -3919,16 +3925,13 @@
         <v>7</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="K56" t="s">
         <v>8</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M56" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N56" t="s">
         <v>9</v>
@@ -3940,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -3992,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -4007,11 +4010,14 @@
         <v>7</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="K58" t="s">
         <v>8</v>
       </c>
+      <c r="L58" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="N58" t="s">
         <v>9</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
@@ -4033,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -4048,14 +4054,11 @@
         <v>7</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="N59" t="s">
         <v>9</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>9</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
@@ -4077,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -4092,11 +4095,14 @@
         <v>7</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K60" t="s">
         <v>8</v>
       </c>
+      <c r="L60" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="N60" t="s">
         <v>9</v>
       </c>
@@ -4106,8 +4112,8 @@
       <c r="P60" t="s">
         <v>9</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>106</v>
+      <c r="Q60" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
@@ -4127,13 +4133,13 @@
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K61" t="s">
         <v>8</v>
@@ -4147,8 +4153,8 @@
       <c r="P61" t="s">
         <v>9</v>
       </c>
-      <c r="Q61" s="3" t="s">
-        <v>107</v>
+      <c r="Q61" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
@@ -4159,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -4168,13 +4174,13 @@
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="K62" t="s">
         <v>8</v>
@@ -4188,8 +4194,8 @@
       <c r="P62" t="s">
         <v>9</v>
       </c>
-      <c r="Q62" s="1" t="s">
-        <v>109</v>
+      <c r="Q62" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
@@ -4200,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -4215,7 +4221,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="K63" t="s">
         <v>8</v>
@@ -4230,7 +4236,7 @@
         <v>9</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -4256,14 +4262,11 @@
         <v>7</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="K64" t="s">
         <v>8</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="N64" t="s">
         <v>9</v>
       </c>
@@ -4273,8 +4276,8 @@
       <c r="P64" t="s">
         <v>9</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>111</v>
+      <c r="Q64" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
@@ -4358,7 +4361,7 @@
       <c r="P66" t="s">
         <v>9</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="Q66" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4452,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -4466,7 +4469,7 @@
       <c r="H69" t="s">
         <v>7</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>316</v>
       </c>
       <c r="J69"/>
@@ -4497,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -4544,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -4558,7 +4561,7 @@
       <c r="H71" t="s">
         <v>7</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="1" t="s">
         <v>318</v>
       </c>
       <c r="J71"/>
@@ -4920,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="E80" t="s">
         <v>4</v>
@@ -4964,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -5087,7 +5090,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:R1">
-    <sortState ref="B2:P87">
+    <sortState ref="B2:R83">
       <sortCondition ref="I1"/>
     </sortState>
   </autoFilter>

--- a/balkan-plus.xlsx
+++ b/balkan-plus.xlsx
@@ -21,19 +21,19 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1671227463" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1671227463" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1671227463" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1671227463"/>
+      <pm:revision xmlns:pm="smNativeData" day="1671268324" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1671268324" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1671268324" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1671268324"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="378">
-  <si>
-    <t>#EXTM3U x-tvg-url="https://iptv-org.github.io/epg/guides/ba.xml,https://iptv-org.github.io/epg/guides/hr.xml,https://iptv-org.github.io/epg/guides/me.xml,https://iptv-org.github.io/epg/guides/rs.xml,https://iptv-org.github.io/epg/guides/uk.xml,https://iptv-org.github.io/epg/guides/us.xml"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="372">
+  <si>
+    <t>#EXTM3U x-tvg-url="https://iptv-org.github.io/epg/guides/hr.xml"</t>
   </si>
   <si>
     <t xml:space="preserve"> country open tag.space left</t>
@@ -48,7 +48,7 @@
     <t>open logo space left</t>
   </si>
   <si>
-    <t>logo composite</t>
+    <t>logo composite url</t>
   </si>
   <si>
     <t>close logo space right</t>
@@ -123,9 +123,6 @@
     <t>Al Jazeera Balkans</t>
   </si>
   <si>
-    <t xml:space="preserve"> (BA)</t>
-  </si>
-  <si>
     <t>newline#</t>
   </si>
   <si>
@@ -162,853 +159,838 @@
     <t>BHRT</t>
   </si>
   <si>
+    <t>https://bhrtstream.bhtelecom.ba/bhrtportal_hd.m3u8</t>
+  </si>
+  <si>
+    <t>BNTV.ba</t>
+  </si>
+  <si>
+    <t>BN TV</t>
+  </si>
+  <si>
+    <t>https://dns2.rtvbn.com:8080/live/index.m3u8</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>CMCTV.hr</t>
+  </si>
+  <si>
+    <t>CMC TV</t>
+  </si>
+  <si>
+    <t>AKA KLAPE I TAMBURE</t>
+  </si>
+  <si>
+    <t>https://stream.cmctv.hr:49998/cmc/live.m3u8</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>DjakTV.rs</t>
+  </si>
+  <si>
+    <t>Djak TV</t>
+  </si>
+  <si>
+    <t>MADE BY KIDS</t>
+  </si>
+  <si>
+    <t>https://srv1.adriatelekom.com/DjakTV/index.m3u8</t>
+  </si>
+  <si>
+    <t>eduTV.rs</t>
+  </si>
+  <si>
+    <t>EDU</t>
+  </si>
+  <si>
+    <t>eduTV</t>
+  </si>
+  <si>
+    <t>https://5aa64ca8b95b8.streamlock.net:4443/edutv/edutelevizija/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>EuronewsSerbia.rs</t>
+  </si>
+  <si>
+    <t>Euronews Serbia</t>
+  </si>
+  <si>
+    <t>https://d1ei8ofhgfmkac.cloudfront.net/app-19518-1306/ngrp:QoZfNjsg_all/chunklist_w1302619168_b6256000.m3u8</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>GTV-Gorenjskatelevizija.sl</t>
+  </si>
+  <si>
+    <t>GTV - Gorenjska televizija</t>
+  </si>
+  <si>
+    <t>http://91.220.221.60/gtv_hls/gtv_03.m3u8</t>
+  </si>
+  <si>
+    <t>HRT1.hr</t>
+  </si>
+  <si>
+    <t>HRT 1</t>
+  </si>
+  <si>
+    <t>REFERER MANDATORY</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226139/04.m3u8</t>
+  </si>
+  <si>
+    <t>HRT2.hr</t>
+  </si>
+  <si>
+    <t>HRT 2</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226140/04.m3u8</t>
+  </si>
+  <si>
+    <t>HRT3.hr</t>
+  </si>
+  <si>
+    <t>HRT 3</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226280/04.m3u8</t>
+  </si>
+  <si>
+    <t>HRT4.hr</t>
+  </si>
+  <si>
+    <t>HRT 4</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226281/index.m3u8</t>
+  </si>
+  <si>
+    <t>HrvatskiradioKarlovac.hr</t>
+  </si>
+  <si>
+    <t>HRVATSKI RADIO KARLOVAC</t>
+  </si>
+  <si>
+    <t>https://pool.alter-media.hr:1936/prvikarlovacki/prvikarlovacki/chunklist_w1038836451.m3u8</t>
+  </si>
+  <si>
+    <t>IDJTV.rs</t>
+  </si>
+  <si>
+    <t>IDJ TV</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=hp1400&amp;sp=idjtv&amp;u=idjtv&amp;p=In$trum300na765ta&amp;channel=idjhd</t>
+  </si>
+  <si>
+    <t>K23TV.rs</t>
+  </si>
+  <si>
+    <t>K23 TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUBOTICA</t>
+  </si>
+  <si>
+    <t>daily motion</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=http://www.dailymotion.com/video/x1jztwz</t>
+  </si>
+  <si>
+    <t>KanalM.rs</t>
+  </si>
+  <si>
+    <t>KANAL M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PARACIN</t>
+  </si>
+  <si>
+    <t>http://176.67.210.1/hls/kanalm.m3u8</t>
+  </si>
+  <si>
+    <t>KarolinaTV.rs</t>
+  </si>
+  <si>
+    <t>KAROLINA TV</t>
+  </si>
+  <si>
+    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/f43b4b5e-7e2e-442d-85a0-4b38fd1c1be7/0.m3u8</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE</t>
+  </si>
+  <si>
+    <t>https://moviesphere-roku.amagi.tv/hls/amagi_hls_data_lionsgate-moviesphere-roku-us/CDN/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
     <t xml:space="preserve"> (HD)</t>
   </si>
   <si>
+    <t>https://moviesphere-plex.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE ENGLAND</t>
+  </si>
+  <si>
+    <t>https://moviesphereuk-samsunguk.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE FREE</t>
+  </si>
+  <si>
+    <t>https://moviesphere-samsung-samsungus.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE UK</t>
+  </si>
+  <si>
+    <t>https://moviesphereuk-rakuten.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MTS ELECTRO</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a7/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS FLASHBACK</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-8/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS JEKA</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-4/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS MOBA</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-2/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS MUZZIK</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-6/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS POPSTAR</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-3/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS RIVIERA</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a5/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS RNR</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-1/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS SENSE</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-7/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS WWM</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-5/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS ZZ TV</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a4/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MTS ZZ4000</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a6/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>N1 BIH</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1bos&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
+  </si>
+  <si>
+    <t>N1 HRV</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1hrv&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
+  </si>
+  <si>
+    <t>N1 SRB</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1srp&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
+  </si>
+  <si>
+    <t>PIROT PI TV</t>
+  </si>
+  <si>
+    <t>http://stream.pikanal.rs/pikanal/pgm.m3u8</t>
+  </si>
+  <si>
+    <t>PRUGA TV</t>
+  </si>
+  <si>
+    <t>https://stream.pruga.rs:8443/live/pruga/index.m3u8</t>
+  </si>
+  <si>
+    <t>RADIO S TV</t>
+  </si>
+  <si>
+    <t>https://sradio.ipradio.rs/sradio/radiostv/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>RAKUTEN ACTION MOVIES UK</t>
+  </si>
+  <si>
+    <t>https://rakuten-actionmovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>RAKUTEN COMEDY MOVIES UK</t>
+  </si>
+  <si>
+    <t>https://rakuten-comedymovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>RED TV</t>
+  </si>
+  <si>
+    <t>https://live.rednet.rs/providus/redtv_multi_hq/index.m3u8</t>
+  </si>
+  <si>
+    <t>ROKU MOVIESPHERE</t>
+  </si>
+  <si>
+    <t>https://moviesphere-roku.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>RTLCroatia.hr</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>https://d1cs5tlhj75jxe.cloudfront.net/rtl/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>RTL2Croatia.hr</t>
+  </si>
+  <si>
+    <t>RTL 2</t>
+  </si>
+  <si>
+    <t>https://d1um9c09e0t5ag.cloudfront.net/rtl2/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>RTLKockica.hr</t>
+  </si>
+  <si>
+    <t>KIDS</t>
+  </si>
+  <si>
+    <t>RTL KOCKICA</t>
+  </si>
+  <si>
+    <t>https://d1rzyyum8t0q1e.cloudfront.net/rtl-kockica/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>RTRS</t>
+  </si>
+  <si>
+    <t>geolocked</t>
+  </si>
+  <si>
+    <t>https://uzivo.rtrs.tv/tv/live/index.m3u8</t>
+  </si>
+  <si>
+    <t>RTV HB</t>
+  </si>
+  <si>
+    <t>HERCEG BOSNA</t>
+  </si>
+  <si>
+    <t>https://prd-hometv-live-open.spectar.tv/ERO_1_083/576p/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>RTV NOVI PAZAR</t>
+  </si>
+  <si>
+    <t>https://rtvnp.rs/hls/rtvnp.m3u8</t>
+  </si>
+  <si>
+    <t>RTV SP</t>
+  </si>
+  <si>
+    <t>STARA PAZOVA</t>
+  </si>
+  <si>
+    <t>rtmp://bk.ddstream.info:1935/mylive/rtvsp/rtvsp</t>
+  </si>
+  <si>
+    <t>RTV USK</t>
+  </si>
+  <si>
+    <t>http://wslb.dobratv.net:8877/usk/tracks-v1a1/mono.m3u8</t>
+  </si>
+  <si>
+    <t>RV VALJEVO PLUS</t>
+  </si>
+  <si>
+    <t>twitch</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/tvvaljevoplus</t>
+  </si>
+  <si>
+    <t>SEHARA ONLINE</t>
+  </si>
+  <si>
+    <t>http://ip2.xxlservices.com:8081/seharaonline/live/chunks.m3u8</t>
+  </si>
+  <si>
+    <t>SEHARA TELEVIZIJA</t>
+  </si>
+  <si>
+    <t>http://ip2.xxlservices.com:8081/seharatv/mpegts/mpeg.2ts</t>
+  </si>
+  <si>
+    <t>SLAVONSKA TV</t>
+  </si>
+  <si>
+    <t>http://89.201.163.244:8080/hls/hdmi.m3u8</t>
+  </si>
+  <si>
+    <t>SOS KANAL PLUS</t>
+  </si>
+  <si>
+    <t>https://53be5ef2d13aa.streamlock.net/soskanalplus/soskanalplus.stream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>STIRR GRAVITAS MOVIES</t>
+  </si>
+  <si>
+    <t>https://gravitas-movies.sinclair.wurl.com/manifest/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>STUDIO B</t>
+  </si>
+  <si>
+    <t>http://91.148.117.134:1935/studiob/studiob.stream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>SUPERTV</t>
+  </si>
+  <si>
+    <t>https://mirtv.club/live/mirtv/index.m3u8</t>
+  </si>
+  <si>
+    <t>TDI RADIO TV</t>
+  </si>
+  <si>
+    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/2dbc3630-2d41-4a02-ace8-da279e698b74/0.m3u8</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>TOONAMI AFTERMATH EAST</t>
+  </si>
+  <si>
+    <t>http://api.toonamiaftermath.com:3000/est/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TOONAMI AFTERMATH MOVIES</t>
+  </si>
+  <si>
+    <t>http://api.toonamiaftermath.com:3000/movies/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>TOONAMI AFTERMATH WEST</t>
+  </si>
+  <si>
+    <t>http://api.toonamiaftermath.com:3000/pst/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TREND TV</t>
+  </si>
+  <si>
+    <t>http://185.62.75.22:1935/trend/myStream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>TV 7</t>
+  </si>
+  <si>
+    <t>https://5a1178b42cc03.streamlock.net/tehnikatv777/tehnikatv777/chunklist_w950220315.m3u8</t>
+  </si>
+  <si>
+    <t>TV AS</t>
+  </si>
+  <si>
+    <t>https://best-str.nettv.cdn.united.cloud/stream?sp=partners&amp;u=partners&amp;p=yN93H7NTrMkx&amp;stream=sp1400&amp;adaptive=false&amp;channel=channel1-srpaac&amp;player=m3u8</t>
+  </si>
+  <si>
+    <t>TVJadran.hr</t>
+  </si>
+  <si>
+    <t>TV Jadran</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x670ug8/live</t>
+  </si>
+  <si>
+    <t>TV KRAGUJEVAC</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/televizijakragujevac</t>
+  </si>
+  <si>
+    <t>TV NOVI PAZAR</t>
+  </si>
+  <si>
+    <t>TV PI PIROT</t>
+  </si>
+  <si>
+    <t>TV PIROT</t>
+  </si>
+  <si>
+    <t>https://5bc45691ca49f.streamlock.net/tvpirot/uzivo/chunklist_w1209443471.m3u8</t>
+  </si>
+  <si>
+    <t>TV SRPSKE DIJASPORE</t>
+  </si>
+  <si>
+    <t>https://live.tsd-tv.com/live/tsd.m3u8</t>
+  </si>
+  <si>
+    <t>TVCG1.me</t>
+  </si>
+  <si>
+    <t>TVCG 1</t>
+  </si>
+  <si>
+    <t>http://cdn3.bcdn.rs:1935/cg1/smil:cg1.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TVCG2.me</t>
+  </si>
+  <si>
+    <t>TVCG 2</t>
+  </si>
+  <si>
+    <t>http://cdn3.bcdn.rs:1935/cg2/smil:cg2.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TVCG3.me</t>
+  </si>
+  <si>
+    <t>TVCG 3</t>
+  </si>
+  <si>
+    <t>https://parlament.rtcg.me:1936/pr/smil:parlament.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TVCGMNE.me</t>
+  </si>
+  <si>
+    <t>TVCG MNE</t>
+  </si>
+  <si>
+    <t>rtmp://rtcg2.videostreaming.rs/rtcg/rtcg.1.stream</t>
+  </si>
+  <si>
+    <t>MOVCLASSIC</t>
+  </si>
+  <si>
+    <t>TVS CLASSIC MOVIES</t>
+  </si>
+  <si>
+    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsclassicmovies/index.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>TVS NOSTALGIA MOVIES</t>
+  </si>
+  <si>
+    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsNostalgiaMovies/index.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>TVSLON EXTRA</t>
+  </si>
+  <si>
+    <t>http://31.47.0.130:8082/</t>
+  </si>
+  <si>
+    <t>VESELJAK TV</t>
+  </si>
+  <si>
+    <t>https://stream.veseljak.tv/hls/stream.m3u8</t>
+  </si>
+  <si>
+    <t>ASTRO</t>
+  </si>
+  <si>
+    <t>https://studio01.vastest.us/hls/83df256b-40f1-c658-7451-92eae1c7c0d9/video_33_play.m3u8</t>
+  </si>
+  <si>
+    <t>TEST LOGO</t>
+  </si>
+  <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>http://85.94.81.190:8844/sdi/aurora.m3u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOP </t>
+  </si>
+  <si>
+    <t>banovina</t>
+  </si>
+  <si>
+    <t>rtmp://video.radio-banovina.hr/live/myStream</t>
+  </si>
+  <si>
+    <t>nar</t>
+  </si>
+  <si>
+    <t>slo</t>
+  </si>
+  <si>
+    <t>exodus tv</t>
+  </si>
+  <si>
+    <t>https://584943999.r.worldssl.net/584943999/_definst_/vzivo/chunklist_w837990398.m3u8</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>GLAS DRINE</t>
+  </si>
+  <si>
+    <t>http://glasdrine.cutuk.net:8081/433ssdsw/GlasDrineSD/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>NAR</t>
+  </si>
+  <si>
+    <t>srb</t>
+  </si>
+  <si>
+    <t>hram tv</t>
+  </si>
+  <si>
+    <t>https://vod1.laki.eu/live/hram/tracks-v1a1/mono.m3u8</t>
+  </si>
+  <si>
+    <t>CHURCH</t>
+  </si>
+  <si>
+    <t>JADRAN TV</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>MARIA VISION</t>
+  </si>
+  <si>
+    <t>https://1601580044.rsc.cdn77.org/live/_jcn_/amlst:Italiasette/chunklist_b1428000.m3u8</t>
+  </si>
+  <si>
+    <t>MARY TV</t>
+  </si>
+  <si>
+    <t>https://2-fss-2.streamhoster.com/pl_120/amlst:200012-111298/chunklist_b2000000.m3u8</t>
+  </si>
+  <si>
+    <t>MEDJUGORJE ITALIA</t>
+  </si>
+  <si>
+    <t>https://5f22d76e220e1.streamlock.net/medjugorjeitaliatv/medjugorjeitaliatv/chunklist_w1529931906.m3u8</t>
+  </si>
+  <si>
+    <t>CHURCH ITA</t>
+  </si>
+  <si>
+    <t>TEMP LINK?</t>
+  </si>
+  <si>
+    <t>n1 SLO</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1slv&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
+  </si>
+  <si>
+    <t>LOGO ONLY</t>
+  </si>
+  <si>
+    <t>NOVA PULA TV</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x694rtu</t>
+  </si>
+  <si>
+    <t>LOW Q</t>
+  </si>
+  <si>
+    <t>OSJECKA TV</t>
+  </si>
+  <si>
+    <t>http://api.new.livestream.com/accounts/27681961/events/8347875/live.m3u8</t>
+  </si>
+  <si>
+    <t>SHOP ?</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>OTV</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x654gen</t>
+  </si>
+  <si>
+    <t>RTV Backa Palanka</t>
+  </si>
+  <si>
+    <t>https://5bc45691ca49f.streamlock.net/rtvbap/uzivo/chunklist_w1314121693.m3u8</t>
+  </si>
+  <si>
+    <t>prekida</t>
+  </si>
+  <si>
+    <t>RTV ZENICA</t>
+  </si>
+  <si>
+    <t>https://stream.rtvze.ba/live/123/123.m3u8</t>
+  </si>
+  <si>
+    <t>siptv</t>
+  </si>
+  <si>
+    <t>https://data.siptv.si/live-siptv/hls/index.m3u8</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>sky folk</t>
+  </si>
+  <si>
+    <t>http://eu.live.skyfolk.mk/live.m3u8</t>
+  </si>
+  <si>
+    <t>NO PIC</t>
+  </si>
+  <si>
+    <t>tv duga</t>
+  </si>
+  <si>
+    <t>http://109.92.29.10:1935/tvduga/tvduga/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>tv duga jos jednom</t>
+  </si>
+  <si>
+    <t>http://109.92.29.10:1935/tvduga/tvduga/chunklist_w407662181.m3u8</t>
+  </si>
+  <si>
+    <t>TV5</t>
+  </si>
+  <si>
+    <t>https://balkanmedia.dynu.net/hls/tv5web.m3u8</t>
+  </si>
+  <si>
+    <t>ZAPAD TV</t>
+  </si>
+  <si>
+    <t>http://webtv.zapad.tv:8080/memfs/1ad23803-84c3-41c7-aa91-fce4c7eac52e.m3u8</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>https://dacastmmd.mmdlive.lldns.net/dacastmmd/23ae13acb237431d9462cc3327163b2f/chunklist_b4628000.m3u8?p=79&amp;s=1670745829&amp;e=1670746429&amp;h=c699d0e79cc84ec5ea9619b73aba2c67</t>
+  </si>
+  <si>
+    <t>LINK EXPIRES DAILY</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>KANAL TV 9</t>
+  </si>
+  <si>
+    <t>https://www.kanal9tv.com/tv-k9-uzivo/</t>
+  </si>
+  <si>
+    <t>OFFLINE TWITCH</t>
+  </si>
+  <si>
+    <t>TV HERCEG NOVI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>NEW. TWITCH, NO SOUND?</t>
+  </si>
+  <si>
+    <t>https://video-weaver.vie02.hls.ttvnw.net/v1/playlist/CpIFv6BIXlta4yasZLqflhThNXOAnj684beipWNxAMy-5586pNJzS5Vcl3V3OPcUW4npg25Lts1JBNUKT3jZdu7NkvsOiZBFyR7uP4YK7CVb6LXBI_HPU_YYmejuh5kFXpy7c3n9kysiF-k8R24cM7oCspmLCw3f9FeegJYfWq-G35UlUsdG4HE9qxhkH8iHLb_8ilrieTnzkIDP83VZotd9v0hv6-_spb8236KjVst2BRGePKYkwj1gtwRgodaSpSDD5jAKeEF5U6EnzH-QWsmbwCUsGCdlUm6VGGlpBfvwYQipnTXdgVZW_jfD8LbE4l6XtjzKhT4GovhqvpcXURRKP1ApgXd2CydapqXNy621msAbdySLs6c5921oX3S2Fc-jlQB1So1hKQRXhKAcx8hjxli3OZdNU4C517GBqy7my_PofBvroFIBHm1ZOdC8NVFW0PbDQf21ofg6iqu_IGH0M8jG4ZVF0Aw7upf-xomBDVYvUwvDe1sqibyt1ibCSzG4QIVnnfCa4fB1xGLJclPPfb3BXlm6jk3BtPVHhH6HzWaL3szewYiLUN5Xpp6O1Afz24iB-YG4Kz0d3O0AE8AWripSaWsMFZAFLSTEELROyLu9i-KRC5sk1usNgnDQMRvUMeopEK9vcKDa2OuD6puqbDR-4aLKcLrGJ-lRQDOd8kXuTw2gxruEALHystzZtl8oFaGMKhXuUT1q_8qUiVA6zBFBCBU-yTFIRGeqP6DrbuCWknNI2v6J0JLR3IEmVvms3ENm1MSBmiZjIWg8L3q1OWdzNWdUcK0cH2vUaXujjfB5dHx4GHA6A72t8ReuJ9tdfyGQGxdHgNziTxBA5JHp9dRz70eAOVeLYdDrn_m9PM_9LxoMuYQw1QH3lNjqYzp4IAEqCWV1LXdlc3QtMTCkAQ.m3u8</t>
+  </si>
+  <si>
+    <t>RT ROZAJE</t>
+  </si>
+  <si>
+    <t>NEW. TWITCH. https://www.twitch.tv/ntvickakanj. Link expires</t>
+  </si>
+  <si>
+    <t>https://video-weaver.vie02.hls.ttvnw.net/v1/playlist/Cq8FOZOYXNZPkHToeoqkydz6NSjPW5lsIAg0abDuwRzugOiYODDZS6gYSlOBWNP5-fi3CJVgSXByFcqp_xSV9PV3Z7cmCIXanVb3E3kkqV2Ktsfo1zCOpDENg4eUQBBokfQ_J-qLpKuE-Z7MDTbj0WfxKYxudJiVcgtZHe1KAq-q954-19t6VkB59Sfg4cjrNOllboZsTFfya7X0djks36d9-PE7EfNGMUZhAOMt5SdhCvp6CyqM6ACD3oUL9V1enxMC9EOY2HVFc7hpYSaTVPctx4yffdif0dihIdu4OUX4nMIbYxJIvbUkUebEtS7CdtGARON6lmSn7UmTWzyBw4X41X3h5e_hjYZE23ucaTlaZmQYnYPuTmlWID4UuLu3jCWwxAIWke34qEq4rDMnY1o7qsoqBOCkyn59WpNpBfvwn0U03NhLLqvd_Uog-DOAMLZ3WhiRf3xyg-osoGpM_gMOAQhYQVncNeL48GLCuTjKk0UJM27K4TDZBg5-iyF5JGQTeuN7MLEZChSeu6-aqWwohePaRhtchCWXOl_f5pLPuas7pn1OnTEMc2NrxXJmoTKKOMreeaNSYvmmAbfihC2UvI8pDf4Q4n_yGsyXKWwsclZKa7OqlIM6fGbG1uDD3Odr4mvoa0FSr3lZeVmB8vhhY3_Sk7dsqFmjnxBvKaBQ03PAelb0gNWFGfpUDoWJ19sWz-Lh79alYXFnYN5b5dF8fOF9Z6rrVofCW_sXwy8N597nQqJCKUB-re-eAbD3icKUx6-Ugduegw6QGD4t5b4aG3JvnfJkm-IHVnKi4Q5258F8b8iFvU2ejvc3FNEP5lw1TYOBgkF__yMFUsQJqbJWbgPjSS8BlsjZf6CrOvu2oAJeiHH09VtADH1iGNjHySktGoS4zfHAWThgVAdX03HzGgxeWPZBraMyhjSwBNkgASoJZXUtd2VzdC0yMK4F.m3u8</t>
+  </si>
+  <si>
+    <t>BOOMERANG SLO</t>
+  </si>
+  <si>
+    <t>not working</t>
+  </si>
+  <si>
     <t>.q4</t>
-  </si>
-  <si>
-    <t>https://bhrtstream.bhtelecom.ba/bhrtportal_hd.m3u8</t>
-  </si>
-  <si>
-    <t>BNTV.ba</t>
-  </si>
-  <si>
-    <t>BN TV</t>
-  </si>
-  <si>
-    <t>.q3</t>
-  </si>
-  <si>
-    <t>https://dns2.rtvbn.com:8080/live/index.m3u8</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>CMCTV.hr</t>
-  </si>
-  <si>
-    <t>CMC TV</t>
-  </si>
-  <si>
-    <t>AKA KLAPE I TAMBURE</t>
-  </si>
-  <si>
-    <t>https://stream.cmctv.hr:49998/cmc/live.m3u8</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>DjakTV.rs</t>
-  </si>
-  <si>
-    <t>Djak TV</t>
-  </si>
-  <si>
-    <t>MADE BY KIDS</t>
-  </si>
-  <si>
-    <t>https://srv1.adriatelekom.com/DjakTV/index.m3u8</t>
-  </si>
-  <si>
-    <t>eduTV.rs</t>
-  </si>
-  <si>
-    <t>EDU</t>
-  </si>
-  <si>
-    <t>eduTV</t>
-  </si>
-  <si>
-    <t>https://5aa64ca8b95b8.streamlock.net:4443/edutv/edutelevizija/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>EuronewsSerbia.rs</t>
-  </si>
-  <si>
-    <t>Euronews Serbia</t>
-  </si>
-  <si>
-    <t>https://d1ei8ofhgfmkac.cloudfront.net/app-19518-1306/ngrp:QoZfNjsg_all/chunklist_w1302619168_b6256000.m3u8</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>GTV-Gorenjskatelevizija.sl</t>
-  </si>
-  <si>
-    <t>GTV - Gorenjska televizija</t>
-  </si>
-  <si>
-    <t>http://91.220.221.60/gtv_hls/gtv_03.m3u8</t>
-  </si>
-  <si>
-    <t>HRT1.hr</t>
-  </si>
-  <si>
-    <t>HRT 1</t>
-  </si>
-  <si>
-    <t>REFERER MANDATORY</t>
-  </si>
-  <si>
-    <t>.q5</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226139/04.m3u8</t>
-  </si>
-  <si>
-    <t>HRT2.hr</t>
-  </si>
-  <si>
-    <t>HRT 2</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226140/04.m3u8</t>
-  </si>
-  <si>
-    <t>HRT3.hr</t>
-  </si>
-  <si>
-    <t>HRT 3</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226280/04.m3u8</t>
-  </si>
-  <si>
-    <t>HRT4.hr</t>
-  </si>
-  <si>
-    <t>HRT 4</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226281/index.m3u8</t>
-  </si>
-  <si>
-    <t>HrvatskiradioKarlovac.hr</t>
-  </si>
-  <si>
-    <t>HRVATSKI RADIO KARLOVAC</t>
-  </si>
-  <si>
-    <t>https://pool.alter-media.hr:1936/prvikarlovacki/prvikarlovacki/chunklist_w1038836451.m3u8</t>
-  </si>
-  <si>
-    <t>IDJTV.rs</t>
-  </si>
-  <si>
-    <t>IDJ TV</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=hp1400&amp;sp=idjtv&amp;u=idjtv&amp;p=In$trum300na765ta&amp;channel=idjhd</t>
-  </si>
-  <si>
-    <t>K23TV.rs</t>
-  </si>
-  <si>
-    <t>K23 TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SUBOTICA</t>
-  </si>
-  <si>
-    <t>daily motion</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=http://www.dailymotion.com/video/x1jztwz</t>
-  </si>
-  <si>
-    <t>KanalM.rs</t>
-  </si>
-  <si>
-    <t>KANAL M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PARACIN</t>
-  </si>
-  <si>
-    <t>http://176.67.210.1/hls/kanalm.m3u8</t>
-  </si>
-  <si>
-    <t>KarolinaTV.rs</t>
-  </si>
-  <si>
-    <t>KAROLINA TV</t>
-  </si>
-  <si>
-    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/f43b4b5e-7e2e-442d-85a0-4b38fd1c1be7/0.m3u8</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>MOV</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE</t>
-  </si>
-  <si>
-    <t>https://moviesphere-roku.amagi.tv/hls/amagi_hls_data_lionsgate-moviesphere-roku-us/CDN/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>https://moviesphere-plex.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE ENGLAND</t>
-  </si>
-  <si>
-    <t>https://moviesphereuk-samsunguk.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE FREE</t>
-  </si>
-  <si>
-    <t>https://moviesphere-samsung-samsungus.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE UK</t>
-  </si>
-  <si>
-    <t>https://moviesphereuk-rakuten.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>MTS ELECTRO</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a7/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS FLASHBACK</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-8/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS JEKA</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-4/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS MOBA</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-2/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS MUZZIK</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-6/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS POPSTAR</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-3/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS RIVIERA</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a5/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS RNR</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-1/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS SENSE</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-7/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS WWM</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-5/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS ZZ TV</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a4/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MTS ZZ4000</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a6/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>N1 BIH</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1bos&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
-  </si>
-  <si>
-    <t>N1 HRV</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1hrv&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
-  </si>
-  <si>
-    <t>N1 SRB</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1srp&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
-  </si>
-  <si>
-    <t>PIROT PI TV</t>
-  </si>
-  <si>
-    <t>http://stream.pikanal.rs/pikanal/pgm.m3u8</t>
-  </si>
-  <si>
-    <t>PRUGA TV</t>
-  </si>
-  <si>
-    <t>https://stream.pruga.rs:8443/live/pruga/index.m3u8</t>
-  </si>
-  <si>
-    <t>RADIO S TV</t>
-  </si>
-  <si>
-    <t>https://sradio.ipradio.rs/sradio/radiostv/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>RAKUTEN ACTION MOVIES UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (720p)</t>
-  </si>
-  <si>
-    <t>https://rakuten-actionmovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>RAKUTEN COMEDY MOVIES UK</t>
-  </si>
-  <si>
-    <t>https://rakuten-comedymovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>RED TV</t>
-  </si>
-  <si>
-    <t>https://live.rednet.rs/providus/redtv_multi_hq/index.m3u8</t>
-  </si>
-  <si>
-    <t>ROKU MOVIESPHERE</t>
-  </si>
-  <si>
-    <t>https://moviesphere-roku.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>RTLCroatia.hr</t>
-  </si>
-  <si>
-    <t>RTL</t>
-  </si>
-  <si>
-    <t>https://d1cs5tlhj75jxe.cloudfront.net/rtl/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>RTL2Croatia.hr</t>
-  </si>
-  <si>
-    <t>RTL 2</t>
-  </si>
-  <si>
-    <t>https://d1um9c09e0t5ag.cloudfront.net/rtl2/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>RTLKockica.hr</t>
-  </si>
-  <si>
-    <t>KIDS</t>
-  </si>
-  <si>
-    <t>RTL KOCKICA</t>
-  </si>
-  <si>
-    <t>https://d1rzyyum8t0q1e.cloudfront.net/rtl-kockica/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>RTRS</t>
-  </si>
-  <si>
-    <t>geolocked</t>
-  </si>
-  <si>
-    <t>https://uzivo.rtrs.tv/tv/live/index.m3u8</t>
-  </si>
-  <si>
-    <t>RTV HB</t>
-  </si>
-  <si>
-    <t>HERCEG BOSNA</t>
-  </si>
-  <si>
-    <t>https://prd-hometv-live-open.spectar.tv/ERO_1_083/576p/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>RTV NOVI PAZAR</t>
-  </si>
-  <si>
-    <t>https://rtvnp.rs/hls/rtvnp.m3u8</t>
-  </si>
-  <si>
-    <t>RTV SP</t>
-  </si>
-  <si>
-    <t>STARA PAZOVA</t>
-  </si>
-  <si>
-    <t>rtmp://bk.ddstream.info:1935/mylive/rtvsp/rtvsp</t>
-  </si>
-  <si>
-    <t>RTV USK</t>
-  </si>
-  <si>
-    <t>http://wslb.dobratv.net:8877/usk/tracks-v1a1/mono.m3u8</t>
-  </si>
-  <si>
-    <t>RV VALJEVO PLUS</t>
-  </si>
-  <si>
-    <t>twitch</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/tvvaljevoplus</t>
-  </si>
-  <si>
-    <t>SEHARA ONLINE</t>
-  </si>
-  <si>
-    <t>http://ip2.xxlservices.com:8081/seharaonline/live/chunks.m3u8</t>
-  </si>
-  <si>
-    <t>SEHARA TELEVIZIJA</t>
-  </si>
-  <si>
-    <t>http://ip2.xxlservices.com:8081/seharatv/mpegts/mpeg.2ts</t>
-  </si>
-  <si>
-    <t>SLAVONSKA TV</t>
-  </si>
-  <si>
-    <t>http://89.201.163.244:8080/hls/hdmi.m3u8</t>
-  </si>
-  <si>
-    <t>SOS KANAL PLUS</t>
-  </si>
-  <si>
-    <t>https://53be5ef2d13aa.streamlock.net/soskanalplus/soskanalplus.stream/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>STIRR GRAVITAS MOVIES</t>
-  </si>
-  <si>
-    <t>https://gravitas-movies.sinclair.wurl.com/manifest/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>STUDIO B</t>
-  </si>
-  <si>
-    <t>http://91.148.117.134:1935/studiob/studiob.stream/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>SUPERTV</t>
-  </si>
-  <si>
-    <t>https://mirtv.club/live/mirtv/index.m3u8</t>
-  </si>
-  <si>
-    <t>TDI RADIO TV</t>
-  </si>
-  <si>
-    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/2dbc3630-2d41-4a02-ace8-da279e698b74/0.m3u8</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>TOONAMI AFTERMATH EAST</t>
-  </si>
-  <si>
-    <t>http://api.toonamiaftermath.com:3000/est/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TOONAMI AFTERMATH MOVIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (540p)</t>
-  </si>
-  <si>
-    <t>http://api.toonamiaftermath.com:3000/movies/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>TOONAMI AFTERMATH WEST</t>
-  </si>
-  <si>
-    <t>http://api.toonamiaftermath.com:3000/pst/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TREND TV</t>
-  </si>
-  <si>
-    <t>http://185.62.75.22:1935/trend/myStream/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>TV 7</t>
-  </si>
-  <si>
-    <t>https://5a1178b42cc03.streamlock.net/tehnikatv777/tehnikatv777/chunklist_w950220315.m3u8</t>
-  </si>
-  <si>
-    <t>TV AS</t>
-  </si>
-  <si>
-    <t>https://best-str.nettv.cdn.united.cloud/stream?sp=partners&amp;u=partners&amp;p=yN93H7NTrMkx&amp;stream=sp1400&amp;adaptive=false&amp;channel=channel1-srpaac&amp;player=m3u8</t>
-  </si>
-  <si>
-    <t>TVJadran.hr</t>
-  </si>
-  <si>
-    <t>TV Jadran</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x670ug8/live</t>
-  </si>
-  <si>
-    <t>TV KRAGUJEVAC</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/televizijakragujevac</t>
-  </si>
-  <si>
-    <t>TV NOVI PAZAR</t>
-  </si>
-  <si>
-    <t>TV PI PIROT</t>
-  </si>
-  <si>
-    <t>TV PIROT</t>
-  </si>
-  <si>
-    <t>https://5bc45691ca49f.streamlock.net/tvpirot/uzivo/chunklist_w1209443471.m3u8</t>
-  </si>
-  <si>
-    <t>TV SRPSKE DIJASPORE</t>
-  </si>
-  <si>
-    <t>https://live.tsd-tv.com/live/tsd.m3u8</t>
-  </si>
-  <si>
-    <t>TVCG1.me</t>
-  </si>
-  <si>
-    <t>TVCG 1</t>
-  </si>
-  <si>
-    <t>http://cdn3.bcdn.rs:1935/cg1/smil:cg1.smil/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVCG2.me</t>
-  </si>
-  <si>
-    <t>TVCG 2</t>
-  </si>
-  <si>
-    <t>http://cdn3.bcdn.rs:1935/cg2/smil:cg2.smil/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVCG3.me</t>
-  </si>
-  <si>
-    <t>TVCG 3</t>
-  </si>
-  <si>
-    <t>https://parlament.rtcg.me:1936/pr/smil:parlament.smil/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVCGMNE.me</t>
-  </si>
-  <si>
-    <t>TVCG MNE</t>
-  </si>
-  <si>
-    <t>rtmp://rtcg2.videostreaming.rs/rtcg/rtcg.1.stream</t>
-  </si>
-  <si>
-    <t>MOVCLASSIC</t>
-  </si>
-  <si>
-    <t>TVS CLASSIC MOVIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (480p)</t>
-  </si>
-  <si>
-    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsclassicmovies/index.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>TVS NOSTALGIA MOVIES</t>
-  </si>
-  <si>
-    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsNostalgiaMovies/index.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>TVSLON EXTRA</t>
-  </si>
-  <si>
-    <t>http://31.47.0.130:8082/</t>
-  </si>
-  <si>
-    <t>VESELJAK TV</t>
-  </si>
-  <si>
-    <t>https://stream.veseljak.tv/hls/stream.m3u8</t>
-  </si>
-  <si>
-    <t>ASTRO</t>
-  </si>
-  <si>
-    <t>https://studio01.vastest.us/hls/83df256b-40f1-c658-7451-92eae1c7c0d9/video_33_play.m3u8</t>
-  </si>
-  <si>
-    <t>TEST LOGO</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>http://85.94.81.190:8844/sdi/aurora.m3u8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOP </t>
-  </si>
-  <si>
-    <t>banovina</t>
-  </si>
-  <si>
-    <t>rtmp://video.radio-banovina.hr/live/myStream</t>
-  </si>
-  <si>
-    <t>nar</t>
-  </si>
-  <si>
-    <t>slo</t>
-  </si>
-  <si>
-    <t>exodus tv</t>
-  </si>
-  <si>
-    <t>https://584943999.r.worldssl.net/584943999/_definst_/vzivo/chunklist_w837990398.m3u8</t>
-  </si>
-  <si>
-    <t>church</t>
-  </si>
-  <si>
-    <t>GLAS DRINE</t>
-  </si>
-  <si>
-    <t>http://glasdrine.cutuk.net:8081/433ssdsw/GlasDrineSD/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>NAR</t>
-  </si>
-  <si>
-    <t>srb</t>
-  </si>
-  <si>
-    <t>hram tv</t>
-  </si>
-  <si>
-    <t>https://vod1.laki.eu/live/hram/tracks-v1a1/mono.m3u8</t>
-  </si>
-  <si>
-    <t>CHURCH</t>
-  </si>
-  <si>
-    <t>JADRAN TV</t>
-  </si>
-  <si>
-    <t>SHOP</t>
-  </si>
-  <si>
-    <t>MARIA VISION</t>
-  </si>
-  <si>
-    <t>https://1601580044.rsc.cdn77.org/live/_jcn_/amlst:Italiasette/chunklist_b1428000.m3u8</t>
-  </si>
-  <si>
-    <t>MARY TV</t>
-  </si>
-  <si>
-    <t>https://2-fss-2.streamhoster.com/pl_120/amlst:200012-111298/chunklist_b2000000.m3u8</t>
-  </si>
-  <si>
-    <t>MEDJUGORJE ITALIA</t>
-  </si>
-  <si>
-    <t>https://5f22d76e220e1.streamlock.net/medjugorjeitaliatv/medjugorjeitaliatv/chunklist_w1529931906.m3u8</t>
-  </si>
-  <si>
-    <t>CHURCH ITA</t>
-  </si>
-  <si>
-    <t>TEMP LINK?</t>
-  </si>
-  <si>
-    <t>n1 SLO</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1slv&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
-  </si>
-  <si>
-    <t>LOGO ONLY</t>
-  </si>
-  <si>
-    <t>NOVA PULA TV</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x694rtu</t>
-  </si>
-  <si>
-    <t>LOW Q</t>
-  </si>
-  <si>
-    <t>OSJECKA TV</t>
-  </si>
-  <si>
-    <t>http://api.new.livestream.com/accounts/27681961/events/8347875/live.m3u8</t>
-  </si>
-  <si>
-    <t>SHOP ?</t>
-  </si>
-  <si>
-    <t>CRO</t>
-  </si>
-  <si>
-    <t>OTV</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x654gen</t>
-  </si>
-  <si>
-    <t>RTV Backa Palanka</t>
-  </si>
-  <si>
-    <t>https://5bc45691ca49f.streamlock.net/rtvbap/uzivo/chunklist_w1314121693.m3u8</t>
-  </si>
-  <si>
-    <t>prekida</t>
-  </si>
-  <si>
-    <t>RTV ZENICA</t>
-  </si>
-  <si>
-    <t>https://stream.rtvze.ba/live/123/123.m3u8</t>
-  </si>
-  <si>
-    <t>siptv</t>
-  </si>
-  <si>
-    <t>https://data.siptv.si/live-siptv/hls/index.m3u8</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>sky folk</t>
-  </si>
-  <si>
-    <t>http://eu.live.skyfolk.mk/live.m3u8</t>
-  </si>
-  <si>
-    <t>NO PIC</t>
-  </si>
-  <si>
-    <t>tv duga</t>
-  </si>
-  <si>
-    <t>http://109.92.29.10:1935/tvduga/tvduga/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>tv duga jos jednom</t>
-  </si>
-  <si>
-    <t>http://109.92.29.10:1935/tvduga/tvduga/chunklist_w407662181.m3u8</t>
-  </si>
-  <si>
-    <t>TV5</t>
-  </si>
-  <si>
-    <t>https://balkanmedia.dynu.net/hls/tv5web.m3u8</t>
-  </si>
-  <si>
-    <t>ZAPAD TV</t>
-  </si>
-  <si>
-    <t>http://webtv.zapad.tv:8080/memfs/1ad23803-84c3-41c7-aa91-fce4c7eac52e.m3u8</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>https://dacastmmd.mmdlive.lldns.net/dacastmmd/23ae13acb237431d9462cc3327163b2f/chunklist_b4628000.m3u8?p=79&amp;s=1670745829&amp;e=1670746429&amp;h=c699d0e79cc84ec5ea9619b73aba2c67</t>
-  </si>
-  <si>
-    <t>LINK EXPIRES DAILY</t>
-  </si>
-  <si>
-    <t>SRB</t>
-  </si>
-  <si>
-    <t>KANAL TV 9</t>
-  </si>
-  <si>
-    <t>https://www.kanal9tv.com/tv-k9-uzivo/</t>
-  </si>
-  <si>
-    <t>OFFLINE TWITCH</t>
-  </si>
-  <si>
-    <t>TV HERCEG NOVI</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>NEW. TWITCH, NO SOUND?</t>
-  </si>
-  <si>
-    <t>https://video-weaver.vie02.hls.ttvnw.net/v1/playlist/CpIFv6BIXlta4yasZLqflhThNXOAnj684beipWNxAMy-5586pNJzS5Vcl3V3OPcUW4npg25Lts1JBNUKT3jZdu7NkvsOiZBFyR7uP4YK7CVb6LXBI_HPU_YYmejuh5kFXpy7c3n9kysiF-k8R24cM7oCspmLCw3f9FeegJYfWq-G35UlUsdG4HE9qxhkH8iHLb_8ilrieTnzkIDP83VZotd9v0hv6-_spb8236KjVst2BRGePKYkwj1gtwRgodaSpSDD5jAKeEF5U6EnzH-QWsmbwCUsGCdlUm6VGGlpBfvwYQipnTXdgVZW_jfD8LbE4l6XtjzKhT4GovhqvpcXURRKP1ApgXd2CydapqXNy621msAbdySLs6c5921oX3S2Fc-jlQB1So1hKQRXhKAcx8hjxli3OZdNU4C517GBqy7my_PofBvroFIBHm1ZOdC8NVFW0PbDQf21ofg6iqu_IGH0M8jG4ZVF0Aw7upf-xomBDVYvUwvDe1sqibyt1ibCSzG4QIVnnfCa4fB1xGLJclPPfb3BXlm6jk3BtPVHhH6HzWaL3szewYiLUN5Xpp6O1Afz24iB-YG4Kz0d3O0AE8AWripSaWsMFZAFLSTEELROyLu9i-KRC5sk1usNgnDQMRvUMeopEK9vcKDa2OuD6puqbDR-4aLKcLrGJ-lRQDOd8kXuTw2gxruEALHystzZtl8oFaGMKhXuUT1q_8qUiVA6zBFBCBU-yTFIRGeqP6DrbuCWknNI2v6J0JLR3IEmVvms3ENm1MSBmiZjIWg8L3q1OWdzNWdUcK0cH2vUaXujjfB5dHx4GHA6A72t8ReuJ9tdfyGQGxdHgNziTxBA5JHp9dRz70eAOVeLYdDrn_m9PM_9LxoMuYQw1QH3lNjqYzp4IAEqCWV1LXdlc3QtMTCkAQ.m3u8</t>
-  </si>
-  <si>
-    <t>RT ROZAJE</t>
-  </si>
-  <si>
-    <t>NEW. TWITCH. https://www.twitch.tv/ntvickakanj. Link expires</t>
-  </si>
-  <si>
-    <t>https://video-weaver.vie02.hls.ttvnw.net/v1/playlist/Cq8FOZOYXNZPkHToeoqkydz6NSjPW5lsIAg0abDuwRzugOiYODDZS6gYSlOBWNP5-fi3CJVgSXByFcqp_xSV9PV3Z7cmCIXanVb3E3kkqV2Ktsfo1zCOpDENg4eUQBBokfQ_J-qLpKuE-Z7MDTbj0WfxKYxudJiVcgtZHe1KAq-q954-19t6VkB59Sfg4cjrNOllboZsTFfya7X0djks36d9-PE7EfNGMUZhAOMt5SdhCvp6CyqM6ACD3oUL9V1enxMC9EOY2HVFc7hpYSaTVPctx4yffdif0dihIdu4OUX4nMIbYxJIvbUkUebEtS7CdtGARON6lmSn7UmTWzyBw4X41X3h5e_hjYZE23ucaTlaZmQYnYPuTmlWID4UuLu3jCWwxAIWke34qEq4rDMnY1o7qsoqBOCkyn59WpNpBfvwn0U03NhLLqvd_Uog-DOAMLZ3WhiRf3xyg-osoGpM_gMOAQhYQVncNeL48GLCuTjKk0UJM27K4TDZBg5-iyF5JGQTeuN7MLEZChSeu6-aqWwohePaRhtchCWXOl_f5pLPuas7pn1OnTEMc2NrxXJmoTKKOMreeaNSYvmmAbfihC2UvI8pDf4Q4n_yGsyXKWwsclZKa7OqlIM6fGbG1uDD3Odr4mvoa0FSr3lZeVmB8vhhY3_Sk7dsqFmjnxBvKaBQ03PAelb0gNWFGfpUDoWJ19sWz-Lh79alYXFnYN5b5dF8fOF9Z6rrVofCW_sXwy8N597nQqJCKUB-re-eAbD3icKUx6-Ugduegw6QGD4t5b4aG3JvnfJkm-IHVnKi4Q5258F8b8iFvU2ejvc3FNEP5lw1TYOBgkF__yMFUsQJqbJWbgPjSS8BlsjZf6CrOvu2oAJeiHH09VtADH1iGNjHySktGoS4zfHAWThgVAdX03HzGgxeWPZBraMyhjSwBNkgASoJZXUtd2VzdC0yMK4F.m3u8</t>
-  </si>
-  <si>
-    <t>BOOMERANG SLO</t>
-  </si>
-  <si>
-    <t>not working</t>
   </si>
   <si>
     <t>http://194.163.179.246/slovenci/djeciji/boomerang.m3u8</t>
@@ -1189,7 +1171,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671227463" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671268324" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1204,7 +1186,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671227463" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671268324" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1219,7 +1201,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671227463" fgClr="FABF8F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671268324" fgClr="FABF8F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1234,7 +1216,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671227463" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671268324" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -1256,7 +1238,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1671227463" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1671268324" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1278,7 +1260,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1671227463"/>
+          <pm:border xmlns:pm="smNativeData" id="1671268324"/>
         </ext>
       </extLst>
     </border>
@@ -1297,7 +1279,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1671227463"/>
+          <pm:border xmlns:pm="smNativeData" id="1671268324"/>
         </ext>
       </extLst>
     </border>
@@ -1317,10 +1299,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1671227463" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1671268324" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1671227463" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1671268324" count="1">
         <pm:color name="Color 24" rgb="FABF8F"/>
       </pm:colors>
     </ext>
@@ -1587,8 +1569,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:Y84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultColWidth="14.144144" defaultRowHeight="13.45"/>
@@ -1598,7 +1580,7 @@
     <col min="4" max="4" width="5.855856" customWidth="1" style="1"/>
     <col min="5" max="6" width="6.000000" customWidth="1"/>
     <col min="7" max="7" width="10.000000" customWidth="1"/>
-    <col min="8" max="8" width="26.063063" customWidth="1"/>
+    <col min="8" max="8" width="87.144144" customWidth="1"/>
     <col min="9" max="10" width="6.540541" customWidth="1"/>
     <col min="11" max="11" width="20.567568" customWidth="1"/>
     <col min="12" max="12" width="6.540541" customWidth="1"/>
@@ -1724,23 +1706,20 @@
       <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:25">
@@ -1770,40 +1749,40 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="V3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:25">
@@ -1833,43 +1812,40 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:25">
@@ -1899,7 +1875,7 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -1908,31 +1884,31 @@
         <v>26</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:25">
@@ -1943,7 +1919,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1962,7 +1938,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -1971,31 +1947,31 @@
         <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:25">
@@ -2006,7 +1982,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2025,7 +2001,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -2034,31 +2010,31 @@
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
         <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:25">
@@ -2069,7 +2045,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2088,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -2097,29 +2073,28 @@
         <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8"/>
+        <v>30</v>
+      </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:25">
@@ -2130,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -2149,7 +2124,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -2164,23 +2139,22 @@
         <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9"/>
+        <v>30</v>
+      </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:25">
@@ -2191,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2210,7 +2184,7 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
@@ -2219,28 +2193,28 @@
         <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:25">
@@ -2251,7 +2225,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -2270,7 +2244,7 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -2279,34 +2253,34 @@
         <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
         <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U11" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:25">
@@ -2317,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -2336,7 +2310,7 @@
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s">
         <v>22</v>
@@ -2345,34 +2319,34 @@
         <v>26</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
         <v>28</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="U12" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:25">
@@ -2383,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -2402,7 +2376,7 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
@@ -2411,34 +2385,34 @@
         <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" t="s">
         <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="U13" t="n">
+        <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:25">
@@ -2449,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -2468,7 +2442,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
         <v>22</v>
@@ -2477,34 +2451,34 @@
         <v>26</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
         <v>28</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U14" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:25">
@@ -2515,7 +2489,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -2534,7 +2508,7 @@
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
         <v>22</v>
@@ -2543,28 +2517,28 @@
         <v>26</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:25">
@@ -2575,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -2594,7 +2568,7 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -2603,31 +2577,28 @@
         <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" t="s">
         <v>28</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:25">
@@ -2638,7 +2609,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2657,7 +2628,7 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
@@ -2666,34 +2637,34 @@
         <v>26</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" t="s">
         <v>28</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:25">
@@ -2704,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -2723,7 +2694,7 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
         <v>22</v>
@@ -2732,31 +2703,31 @@
         <v>26</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O18" t="s">
         <v>28</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:25">
@@ -2767,7 +2738,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2786,7 +2757,7 @@
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -2795,29 +2766,28 @@
         <v>26</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O19" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19"/>
+        <v>30</v>
+      </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:25">
@@ -2828,7 +2798,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -2836,14 +2806,12 @@
       <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
       </c>
-      <c r="K20"/>
       <c r="L20" t="s">
         <v>22</v>
       </c>
@@ -2851,31 +2819,31 @@
         <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O20" t="s">
         <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:25">
@@ -2886,57 +2854,55 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:25">
@@ -2947,7 +2913,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -2955,14 +2921,12 @@
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="H22"/>
       <c r="I22" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
-      <c r="K22"/>
       <c r="L22" t="s">
         <v>22</v>
       </c>
@@ -2970,31 +2934,31 @@
         <v>26</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O22" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="R22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:25">
@@ -3005,7 +2969,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -3013,14 +2977,12 @@
       <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="H23"/>
       <c r="I23" t="s">
         <v>22</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
       </c>
-      <c r="K23"/>
       <c r="L23" t="s">
         <v>22</v>
       </c>
@@ -3028,31 +2990,31 @@
         <v>26</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O23" t="s">
         <v>28</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R23" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U23" t="n">
+        <v>5</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:25">
@@ -3063,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -3071,14 +3033,12 @@
       <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="H24"/>
       <c r="I24" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="s">
         <v>24</v>
       </c>
-      <c r="K24"/>
       <c r="L24" t="s">
         <v>22</v>
       </c>
@@ -3086,31 +3046,31 @@
         <v>26</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O24" t="s">
         <v>28</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:25">
@@ -3121,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
@@ -3129,14 +3089,12 @@
       <c r="F25" t="s">
         <v>23</v>
       </c>
-      <c r="H25"/>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
         <v>24</v>
       </c>
-      <c r="K25"/>
       <c r="L25" t="s">
         <v>22</v>
       </c>
@@ -3144,31 +3102,31 @@
         <v>26</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
         <v>28</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:25">
@@ -3179,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -3187,14 +3145,12 @@
       <c r="F26" t="s">
         <v>23</v>
       </c>
-      <c r="H26"/>
       <c r="I26" t="s">
         <v>22</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
       </c>
-      <c r="K26"/>
       <c r="L26" t="s">
         <v>22</v>
       </c>
@@ -3202,31 +3158,31 @@
         <v>26</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
         <v>28</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:25">
@@ -3237,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -3245,14 +3201,12 @@
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="H27"/>
       <c r="I27" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
         <v>24</v>
       </c>
-      <c r="K27"/>
       <c r="L27" t="s">
         <v>22</v>
       </c>
@@ -3260,32 +3214,31 @@
         <v>26</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" t="s">
         <v>28</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U27"/>
+        <v>69</v>
+      </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:25">
@@ -3296,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -3304,14 +3257,12 @@
       <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="H28"/>
       <c r="I28" t="s">
         <v>22</v>
       </c>
       <c r="J28" t="s">
         <v>24</v>
       </c>
-      <c r="K28"/>
       <c r="L28" t="s">
         <v>22</v>
       </c>
@@ -3319,32 +3270,31 @@
         <v>26</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
         <v>28</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U28"/>
+        <v>69</v>
+      </c>
       <c r="V28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:25">
@@ -3355,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -3363,14 +3313,12 @@
       <c r="F29" t="s">
         <v>23</v>
       </c>
-      <c r="H29"/>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
         <v>24</v>
       </c>
-      <c r="K29"/>
       <c r="L29" t="s">
         <v>22</v>
       </c>
@@ -3378,32 +3326,31 @@
         <v>26</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O29" t="s">
         <v>28</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U29"/>
+        <v>69</v>
+      </c>
       <c r="V29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:25">
@@ -3414,7 +3361,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -3422,14 +3369,12 @@
       <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="H30"/>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
       </c>
-      <c r="K30"/>
       <c r="L30" t="s">
         <v>22</v>
       </c>
@@ -3437,32 +3382,31 @@
         <v>26</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O30" t="s">
         <v>28</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U30"/>
+        <v>69</v>
+      </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:25">
@@ -3473,7 +3417,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -3494,32 +3438,31 @@
         <v>26</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O31" t="s">
         <v>28</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U31"/>
+        <v>69</v>
+      </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:25">
@@ -3530,7 +3473,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -3551,32 +3494,31 @@
         <v>26</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O32" t="s">
         <v>28</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U32"/>
+        <v>69</v>
+      </c>
       <c r="V32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="2:25">
@@ -3587,7 +3529,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -3608,31 +3550,31 @@
         <v>26</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O33" t="s">
         <v>28</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="R33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:25">
@@ -3643,7 +3585,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -3664,31 +3606,31 @@
         <v>26</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O34" t="s">
         <v>28</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:25">
@@ -3699,7 +3641,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
@@ -3720,33 +3662,32 @@
         <v>26</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O35" t="s">
         <v>28</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U35"/>
+        <v>69</v>
+      </c>
       <c r="V35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:25">
@@ -3757,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -3765,14 +3706,12 @@
       <c r="F36" t="s">
         <v>23</v>
       </c>
-      <c r="H36"/>
       <c r="I36" t="s">
         <v>22</v>
       </c>
       <c r="J36" t="s">
         <v>24</v>
       </c>
-      <c r="K36"/>
       <c r="L36" t="s">
         <v>22</v>
       </c>
@@ -3780,32 +3719,31 @@
         <v>26</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
         <v>28</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U36"/>
+        <v>69</v>
+      </c>
       <c r="V36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:25">
@@ -3824,14 +3762,12 @@
       <c r="F37" t="s">
         <v>23</v>
       </c>
-      <c r="H37"/>
       <c r="I37" t="s">
         <v>22</v>
       </c>
       <c r="J37" t="s">
         <v>24</v>
       </c>
-      <c r="K37"/>
       <c r="L37" t="s">
         <v>22</v>
       </c>
@@ -3845,23 +3781,22 @@
         <v>28</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="R37" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37"/>
+        <v>30</v>
+      </c>
       <c r="V37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:25">
@@ -3872,7 +3807,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -3880,14 +3815,12 @@
       <c r="F38" t="s">
         <v>23</v>
       </c>
-      <c r="H38"/>
       <c r="I38" t="s">
         <v>22</v>
       </c>
       <c r="J38" t="s">
         <v>24</v>
       </c>
-      <c r="K38"/>
       <c r="L38" t="s">
         <v>22</v>
       </c>
@@ -3901,23 +3834,22 @@
         <v>28</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="R38" t="s">
-        <v>31</v>
-      </c>
-      <c r="U38"/>
+        <v>30</v>
+      </c>
       <c r="V38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="2:25">
@@ -3928,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -3936,14 +3868,12 @@
       <c r="F39" t="s">
         <v>23</v>
       </c>
-      <c r="H39"/>
       <c r="I39" t="s">
         <v>22</v>
       </c>
       <c r="J39" t="s">
         <v>24</v>
       </c>
-      <c r="K39"/>
       <c r="L39" t="s">
         <v>22</v>
       </c>
@@ -3957,23 +3887,22 @@
         <v>28</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="R39" t="s">
-        <v>31</v>
-      </c>
-      <c r="U39"/>
+        <v>30</v>
+      </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:25">
@@ -3984,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -3992,14 +3921,12 @@
       <c r="F40" t="s">
         <v>23</v>
       </c>
-      <c r="H40"/>
       <c r="I40" t="s">
         <v>22</v>
       </c>
       <c r="J40" t="s">
         <v>24</v>
       </c>
-      <c r="K40"/>
       <c r="L40" t="s">
         <v>22</v>
       </c>
@@ -4007,29 +3934,28 @@
         <v>26</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="R40" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40"/>
+        <v>30</v>
+      </c>
       <c r="V40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:25">
@@ -4040,7 +3966,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -4048,14 +3974,12 @@
       <c r="F41" t="s">
         <v>23</v>
       </c>
-      <c r="H41"/>
       <c r="I41" t="s">
         <v>22</v>
       </c>
       <c r="J41" t="s">
         <v>24</v>
       </c>
-      <c r="K41"/>
       <c r="L41" t="s">
         <v>22</v>
       </c>
@@ -4063,29 +3987,28 @@
         <v>26</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O41" t="s">
         <v>28</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="R41" t="s">
-        <v>31</v>
-      </c>
-      <c r="U41"/>
+        <v>30</v>
+      </c>
       <c r="V41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:25">
@@ -4096,7 +4019,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
@@ -4117,29 +4040,28 @@
         <v>26</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O42" t="s">
         <v>28</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="R42" t="s">
-        <v>31</v>
-      </c>
-      <c r="U42"/>
+        <v>30</v>
+      </c>
       <c r="V42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:25">
@@ -4150,7 +4072,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -4171,32 +4093,28 @@
         <v>26</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O43" t="s">
         <v>28</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="R43" t="s">
-        <v>31</v>
-      </c>
-      <c r="U43"/>
+        <v>30</v>
+      </c>
       <c r="V43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:25">
@@ -4207,7 +4125,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -4215,14 +4133,12 @@
       <c r="F44" t="s">
         <v>23</v>
       </c>
-      <c r="H44"/>
       <c r="I44" t="s">
         <v>22</v>
       </c>
       <c r="J44" t="s">
         <v>24</v>
       </c>
-      <c r="K44"/>
       <c r="L44" t="s">
         <v>22</v>
       </c>
@@ -4230,32 +4146,28 @@
         <v>26</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O44" t="s">
         <v>28</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R44" t="s">
-        <v>31</v>
-      </c>
-      <c r="U44"/>
+        <v>30</v>
+      </c>
       <c r="V44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="2:25">
@@ -4266,7 +4178,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -4274,14 +4186,12 @@
       <c r="F45" t="s">
         <v>23</v>
       </c>
-      <c r="H45"/>
       <c r="I45" t="s">
         <v>22</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
       </c>
-      <c r="K45"/>
       <c r="L45" t="s">
         <v>22</v>
       </c>
@@ -4289,31 +4199,31 @@
         <v>26</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O45" t="s">
         <v>28</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="R45" t="s">
-        <v>31</v>
-      </c>
-      <c r="U45" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5</v>
       </c>
       <c r="V45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="2:25">
@@ -4324,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -4332,14 +4242,12 @@
       <c r="F46" t="s">
         <v>23</v>
       </c>
-      <c r="H46"/>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="s">
         <v>24</v>
       </c>
-      <c r="K46"/>
       <c r="L46" t="s">
         <v>22</v>
       </c>
@@ -4347,29 +4255,28 @@
         <v>26</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O46" t="s">
         <v>28</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R46" t="s">
-        <v>31</v>
-      </c>
-      <c r="U46"/>
+        <v>30</v>
+      </c>
       <c r="V46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="2:25">
@@ -4380,7 +4287,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -4399,7 +4306,7 @@
         <v>24</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s">
         <v>22</v>
@@ -4408,31 +4315,31 @@
         <v>26</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="R47" t="s">
-        <v>31</v>
-      </c>
-      <c r="U47" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U47" t="n">
+        <v>5</v>
       </c>
       <c r="V47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="2:25">
@@ -4443,7 +4350,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -4462,7 +4369,7 @@
         <v>24</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
@@ -4471,31 +4378,31 @@
         <v>26</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R48" t="s">
-        <v>31</v>
-      </c>
-      <c r="U48" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U48" t="n">
+        <v>5</v>
       </c>
       <c r="V48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="2:25">
@@ -4506,7 +4413,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -4525,7 +4432,7 @@
         <v>24</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -4534,31 +4441,31 @@
         <v>26</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="R49" t="s">
-        <v>31</v>
-      </c>
-      <c r="U49" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U49" t="n">
+        <v>5</v>
       </c>
       <c r="V49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="2:25">
@@ -4590,34 +4497,34 @@
         <v>26</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O50" t="s">
         <v>28</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="R50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="U50" t="s">
-        <v>44</v>
+        <v>165</v>
+      </c>
+      <c r="U50" t="n">
+        <v>4</v>
       </c>
       <c r="V50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:25">
@@ -4649,31 +4556,31 @@
         <v>26</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O51" t="s">
         <v>28</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="R51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="V51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="2:25">
@@ -4684,7 +4591,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -4705,28 +4612,28 @@
         <v>26</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="2:25">
@@ -4737,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -4758,32 +4665,31 @@
         <v>26</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="R53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U53"/>
+        <v>173</v>
+      </c>
       <c r="V53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:25">
@@ -4815,28 +4721,28 @@
         <v>26</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="R54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="2:25">
@@ -4847,7 +4753,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -4868,32 +4774,31 @@
         <v>26</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O55" t="s">
         <v>28</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="U55"/>
+        <v>178</v>
+      </c>
       <c r="V55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="2:25">
@@ -4925,29 +4830,28 @@
         <v>26</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O56" t="s">
         <v>28</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="R56" t="s">
-        <v>31</v>
-      </c>
-      <c r="U56"/>
+        <v>30</v>
+      </c>
       <c r="V56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="2:25">
@@ -4979,29 +4883,28 @@
         <v>26</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="R57" t="s">
-        <v>31</v>
-      </c>
-      <c r="U57"/>
+        <v>30</v>
+      </c>
       <c r="V57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="2:25">
@@ -5012,7 +4915,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -5033,29 +4936,28 @@
         <v>26</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R58" t="s">
-        <v>31</v>
-      </c>
-      <c r="U58"/>
+        <v>30</v>
+      </c>
       <c r="V58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="2:25">
@@ -5066,7 +4968,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
@@ -5087,29 +4989,28 @@
         <v>26</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R59" t="s">
-        <v>31</v>
-      </c>
-      <c r="U59"/>
+        <v>30</v>
+      </c>
       <c r="V59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="2:25">
@@ -5120,7 +5021,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
@@ -5141,32 +5042,28 @@
         <v>26</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O60" t="s">
         <v>28</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="R60" t="s">
-        <v>31</v>
-      </c>
-      <c r="U60"/>
+        <v>30</v>
+      </c>
       <c r="V60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="2:25">
@@ -5177,7 +5074,7 @@
         <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
@@ -5185,14 +5082,12 @@
       <c r="F61" t="s">
         <v>23</v>
       </c>
-      <c r="H61"/>
       <c r="I61" t="s">
         <v>22</v>
       </c>
       <c r="J61" t="s">
         <v>24</v>
       </c>
-      <c r="K61"/>
       <c r="L61" t="s">
         <v>22</v>
       </c>
@@ -5200,29 +5095,28 @@
         <v>26</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O61" t="s">
         <v>28</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R61" t="s">
-        <v>31</v>
-      </c>
-      <c r="U61"/>
+        <v>30</v>
+      </c>
       <c r="V61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="2:25">
@@ -5241,14 +5135,12 @@
       <c r="F62" t="s">
         <v>23</v>
       </c>
-      <c r="H62"/>
       <c r="I62" t="s">
         <v>22</v>
       </c>
       <c r="J62" t="s">
         <v>24</v>
       </c>
-      <c r="K62"/>
       <c r="L62" t="s">
         <v>22</v>
       </c>
@@ -5256,29 +5148,28 @@
         <v>26</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R62" t="s">
-        <v>31</v>
-      </c>
-      <c r="U62"/>
+        <v>30</v>
+      </c>
       <c r="V62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="2:25">
@@ -5289,7 +5180,7 @@
         <v>20</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -5297,14 +5188,12 @@
       <c r="F63" t="s">
         <v>23</v>
       </c>
-      <c r="H63"/>
       <c r="I63" t="s">
         <v>22</v>
       </c>
       <c r="J63" t="s">
         <v>24</v>
       </c>
-      <c r="K63"/>
       <c r="L63" t="s">
         <v>22</v>
       </c>
@@ -5312,29 +5201,28 @@
         <v>26</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="R63" t="s">
-        <v>31</v>
-      </c>
-      <c r="U63"/>
+        <v>30</v>
+      </c>
       <c r="V63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="2:25">
@@ -5345,7 +5233,7 @@
         <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -5353,14 +5241,12 @@
       <c r="F64" t="s">
         <v>23</v>
       </c>
-      <c r="H64"/>
       <c r="I64" t="s">
         <v>22</v>
       </c>
       <c r="J64" t="s">
         <v>24</v>
       </c>
-      <c r="K64"/>
       <c r="L64" t="s">
         <v>22</v>
       </c>
@@ -5368,32 +5254,32 @@
         <v>26</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q64"/>
       <c r="R64" t="s">
-        <v>31</v>
-      </c>
-      <c r="U64" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U64" t="n">
+        <v>5</v>
       </c>
       <c r="V64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y64" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="2:25">
@@ -5404,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -5412,14 +5298,12 @@
       <c r="F65" t="s">
         <v>23</v>
       </c>
-      <c r="H65"/>
       <c r="I65" t="s">
         <v>22</v>
       </c>
       <c r="J65" t="s">
         <v>24</v>
       </c>
-      <c r="K65"/>
       <c r="L65" t="s">
         <v>22</v>
       </c>
@@ -5427,34 +5311,32 @@
         <v>26</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O65" t="s">
         <v>28</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s">
-        <v>31</v>
-      </c>
-      <c r="U65" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U65" t="n">
+        <v>5</v>
       </c>
       <c r="V65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="2:25">
@@ -5465,55 +5347,53 @@
         <v>20</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O66" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66"/>
-      <c r="I66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66"/>
-      <c r="L66" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66" t="s">
-        <v>26</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O66" t="s">
-        <v>28</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="Q66"/>
       <c r="R66" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="U66" t="n">
+        <v>5</v>
       </c>
       <c r="V66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y66" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="2:25">
@@ -5524,7 +5404,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -5532,14 +5412,12 @@
       <c r="F67" t="s">
         <v>23</v>
       </c>
-      <c r="H67"/>
       <c r="I67" t="s">
         <v>22</v>
       </c>
       <c r="J67" t="s">
         <v>24</v>
       </c>
-      <c r="K67"/>
       <c r="L67" t="s">
         <v>22</v>
       </c>
@@ -5547,29 +5425,28 @@
         <v>26</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="R67" t="s">
-        <v>31</v>
-      </c>
-      <c r="U67"/>
+        <v>30</v>
+      </c>
       <c r="V67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="2:25">
@@ -5580,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -5588,14 +5465,12 @@
       <c r="F68" t="s">
         <v>23</v>
       </c>
-      <c r="H68"/>
       <c r="I68" t="s">
         <v>22</v>
       </c>
       <c r="J68" t="s">
         <v>24</v>
       </c>
-      <c r="K68"/>
       <c r="L68" t="s">
         <v>22</v>
       </c>
@@ -5603,29 +5478,28 @@
         <v>26</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="R68" t="s">
-        <v>31</v>
-      </c>
-      <c r="U68"/>
+        <v>30</v>
+      </c>
       <c r="V68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="2:25">
@@ -5636,7 +5510,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -5644,14 +5518,12 @@
       <c r="F69" t="s">
         <v>23</v>
       </c>
-      <c r="H69"/>
       <c r="I69" t="s">
         <v>22</v>
       </c>
       <c r="J69" t="s">
         <v>24</v>
       </c>
-      <c r="K69"/>
       <c r="L69" t="s">
         <v>22</v>
       </c>
@@ -5659,29 +5531,28 @@
         <v>26</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="R69" t="s">
-        <v>31</v>
-      </c>
-      <c r="U69"/>
+        <v>30</v>
+      </c>
       <c r="V69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="2:25">
@@ -5692,7 +5563,7 @@
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -5711,7 +5582,7 @@
         <v>24</v>
       </c>
       <c r="K70" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L70" t="s">
         <v>22</v>
@@ -5720,32 +5591,31 @@
         <v>26</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O70" t="s">
         <v>28</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="R70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U70"/>
+        <v>89</v>
+      </c>
       <c r="V70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="2:25">
@@ -5756,7 +5626,7 @@
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -5764,14 +5634,12 @@
       <c r="F71" t="s">
         <v>23</v>
       </c>
-      <c r="H71"/>
       <c r="I71" t="s">
         <v>22</v>
       </c>
       <c r="J71" t="s">
         <v>24</v>
       </c>
-      <c r="K71"/>
       <c r="L71" t="s">
         <v>22</v>
       </c>
@@ -5779,32 +5647,31 @@
         <v>26</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O71" t="s">
         <v>28</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="R71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="U71"/>
+        <v>178</v>
+      </c>
       <c r="V71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="2:25">
@@ -5815,7 +5682,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -5823,14 +5690,12 @@
       <c r="F72" t="s">
         <v>23</v>
       </c>
-      <c r="H72"/>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" t="s">
         <v>24</v>
       </c>
-      <c r="K72"/>
       <c r="L72" t="s">
         <v>22</v>
       </c>
@@ -5838,29 +5703,28 @@
         <v>26</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R72" t="s">
-        <v>31</v>
-      </c>
-      <c r="U72"/>
+        <v>30</v>
+      </c>
       <c r="V72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="2:25">
@@ -5871,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -5879,14 +5743,12 @@
       <c r="F73" t="s">
         <v>23</v>
       </c>
-      <c r="H73"/>
       <c r="I73" t="s">
         <v>22</v>
       </c>
       <c r="J73" t="s">
         <v>24</v>
       </c>
-      <c r="K73"/>
       <c r="L73" t="s">
         <v>22</v>
       </c>
@@ -5894,29 +5756,28 @@
         <v>26</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="R73" t="s">
-        <v>31</v>
-      </c>
-      <c r="U73"/>
+        <v>30</v>
+      </c>
       <c r="V73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="2:25">
@@ -5927,7 +5788,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
@@ -5935,14 +5796,12 @@
       <c r="F74" t="s">
         <v>23</v>
       </c>
-      <c r="H74"/>
       <c r="I74" t="s">
         <v>22</v>
       </c>
       <c r="J74" t="s">
         <v>24</v>
       </c>
-      <c r="K74"/>
       <c r="L74" t="s">
         <v>22</v>
       </c>
@@ -5950,29 +5809,28 @@
         <v>26</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="R74" t="s">
-        <v>31</v>
-      </c>
-      <c r="U74"/>
+        <v>30</v>
+      </c>
       <c r="V74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="2:25">
@@ -5983,7 +5841,7 @@
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -5991,14 +5849,12 @@
       <c r="F75" t="s">
         <v>23</v>
       </c>
-      <c r="H75"/>
       <c r="I75" t="s">
         <v>22</v>
       </c>
       <c r="J75" t="s">
         <v>24</v>
       </c>
-      <c r="K75"/>
       <c r="L75" t="s">
         <v>22</v>
       </c>
@@ -6006,29 +5862,28 @@
         <v>26</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O75" t="s">
         <v>28</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="R75" t="s">
-        <v>31</v>
-      </c>
-      <c r="U75"/>
+        <v>30</v>
+      </c>
       <c r="V75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="2:25">
@@ -6039,7 +5894,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -6058,7 +5913,7 @@
         <v>24</v>
       </c>
       <c r="K76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -6067,31 +5922,31 @@
         <v>26</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O76" t="s">
         <v>28</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="R76" t="s">
-        <v>31</v>
-      </c>
-      <c r="U76" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="U76" t="n">
+        <v>4</v>
       </c>
       <c r="V76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="2:25">
@@ -6102,7 +5957,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
         <v>22</v>
@@ -6121,7 +5976,7 @@
         <v>24</v>
       </c>
       <c r="K77" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -6130,31 +5985,31 @@
         <v>26</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O77" t="s">
         <v>28</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="R77" t="s">
-        <v>31</v>
-      </c>
-      <c r="U77" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="U77" t="n">
+        <v>4</v>
       </c>
       <c r="V77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="2:25">
@@ -6165,7 +6020,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -6184,7 +6039,7 @@
         <v>24</v>
       </c>
       <c r="K78" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
@@ -6193,29 +6048,28 @@
         <v>26</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O78" t="s">
         <v>28</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="R78" t="s">
-        <v>31</v>
-      </c>
-      <c r="U78"/>
+        <v>30</v>
+      </c>
       <c r="V78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="2:25">
@@ -6226,7 +6080,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -6245,7 +6099,7 @@
         <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L79" t="s">
         <v>22</v>
@@ -6254,28 +6108,28 @@
         <v>26</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O79" t="s">
         <v>28</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="R79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="2:25">
@@ -6286,7 +6140,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -6294,14 +6148,12 @@
       <c r="F80" t="s">
         <v>23</v>
       </c>
-      <c r="H80"/>
       <c r="I80" t="s">
         <v>22</v>
       </c>
       <c r="J80" t="s">
         <v>24</v>
       </c>
-      <c r="K80"/>
       <c r="L80" t="s">
         <v>22</v>
       </c>
@@ -6309,32 +6161,29 @@
         <v>26</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O80" t="s">
         <v>28</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="Q80" s="2"/>
       <c r="R80" t="s">
-        <v>31</v>
-      </c>
-      <c r="U80"/>
+        <v>30</v>
+      </c>
       <c r="V80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="2:25">
@@ -6345,7 +6194,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -6353,14 +6202,12 @@
       <c r="F81" t="s">
         <v>23</v>
       </c>
-      <c r="H81"/>
       <c r="I81" t="s">
         <v>22</v>
       </c>
       <c r="J81" t="s">
         <v>24</v>
       </c>
-      <c r="K81"/>
       <c r="L81" t="s">
         <v>22</v>
       </c>
@@ -6368,32 +6215,29 @@
         <v>26</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Q81" s="2"/>
       <c r="R81" t="s">
-        <v>31</v>
-      </c>
-      <c r="U81"/>
+        <v>30</v>
+      </c>
       <c r="V81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="2:25">
@@ -6412,14 +6256,12 @@
       <c r="F82" t="s">
         <v>23</v>
       </c>
-      <c r="H82"/>
       <c r="I82" t="s">
         <v>22</v>
       </c>
       <c r="J82" t="s">
         <v>24</v>
       </c>
-      <c r="K82"/>
       <c r="L82" t="s">
         <v>22</v>
       </c>
@@ -6427,28 +6269,28 @@
         <v>26</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="R82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="2:25">
@@ -6459,7 +6301,7 @@
         <v>20</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -6467,14 +6309,12 @@
       <c r="F83" t="s">
         <v>23</v>
       </c>
-      <c r="H83"/>
       <c r="I83" t="s">
         <v>22</v>
       </c>
       <c r="J83" t="s">
         <v>24</v>
       </c>
-      <c r="K83"/>
       <c r="L83" t="s">
         <v>22</v>
       </c>
@@ -6482,28 +6322,28 @@
         <v>26</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="R83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="25:25">
@@ -6518,7 +6358,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671227463" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671268324" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6527,16 +6367,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671227463" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671268324" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6563,49 +6403,49 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6613,38 +6453,38 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6652,24 +6492,24 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6677,113 +6517,113 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6791,108 +6631,108 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -6903,7 +6743,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -6912,31 +6752,31 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -6947,7 +6787,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -6956,34 +6796,34 @@
         <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -6994,7 +6834,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -7003,32 +6843,32 @@
         <v>26</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -7048,31 +6888,31 @@
         <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="M31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -7083,7 +6923,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -7092,34 +6932,34 @@
         <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -7130,7 +6970,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -7139,34 +6979,34 @@
         <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7174,7 +7014,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671227463" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671268324" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7183,16 +7023,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671227463" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671268324" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7216,107 +7056,107 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671227463" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671268324" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7325,16 +7165,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671227463" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671268324" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7358,118 +7198,118 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671227463" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671268324" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7478,16 +7318,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671227463" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671268324" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7508,20 +7348,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671227463" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671268324" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7530,16 +7370,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671227463" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671227463" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671268324" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671268324" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671227463" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671268324" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/balkan-plus.xlsx
+++ b/balkan-plus.xlsx
@@ -21,10 +21,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1671478846" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1671478846" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1671478846" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1671478846"/>
+      <pm:revision xmlns:pm="smNativeData" day="1671479146" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1671479146" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1671479146" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1671479146"/>
     </ext>
   </extLst>
 </workbook>
@@ -1240,7 +1240,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671478846" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1255,7 +1255,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671478846" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1270,7 +1270,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671478846" fgClr="FABF8F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" fgClr="FABF8F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1279,14 +1279,14 @@
       </extLst>
     </font>
     <font>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671478846" ulstyle="none" kern="1">
-            <pm:latin face="Times New Roman" sz="240" lang="default"/>
+          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" ulstyle="none" kern="1">
+            <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
           </pm:charSpec>
@@ -1307,7 +1307,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1671478846" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1671479146" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1329,7 +1329,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1671478846"/>
+          <pm:border xmlns:pm="smNativeData" id="1671479146"/>
         </ext>
       </extLst>
     </border>
@@ -1348,7 +1348,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1671478846"/>
+          <pm:border xmlns:pm="smNativeData" id="1671479146"/>
         </ext>
       </extLst>
     </border>
@@ -1368,10 +1368,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1671478846" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1671479146" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1671478846" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1671479146" count="1">
         <pm:color name="Color 24" rgb="FABF8F"/>
       </pm:colors>
     </ext>
@@ -1638,8 +1638,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="J65" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultColWidth="14.144144" defaultRowHeight="13.45"/>
@@ -1693,6 +1693,7 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1"/>
       <c r="K1" t="s">
         <v>8</v>
       </c>
@@ -6463,7 +6464,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671478846" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6472,16 +6473,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671478846" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7244,7 +7245,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671478846" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7253,16 +7254,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671478846" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7386,7 +7387,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671478846" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7395,16 +7396,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671478846" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7539,7 +7540,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671478846" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7548,16 +7549,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671478846" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7591,7 +7592,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671478846" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7600,16 +7601,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671478846" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671478846" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671478846" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/balkan-plus.xlsx
+++ b/balkan-plus.xlsx
@@ -21,17 +21,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1671479146" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1671479146" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1671479146" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1671479146"/>
+      <pm:revision xmlns:pm="smNativeData" day="1671483568" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1671483568" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1671483568" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1671483568"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="390">
   <si>
     <t>#EXTM3U x-tvg-url="https://iptv-org.github.io/epg/guides/hr.xml"</t>
   </si>
@@ -171,6 +171,261 @@
     <t>https://dns2.rtvbn.com:8080/live/index.m3u8</t>
   </si>
   <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>CMCTV.hr</t>
+  </si>
+  <si>
+    <t>CMC TV</t>
+  </si>
+  <si>
+    <t>AKA KLAPE I TAMBURE</t>
+  </si>
+  <si>
+    <t>https://stream.cmctv.hr:49998/cmc/live.m3u8</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>eduTV.rs</t>
+  </si>
+  <si>
+    <t>EDU</t>
+  </si>
+  <si>
+    <t>eduTV</t>
+  </si>
+  <si>
+    <t>https://5aa64ca8b95b8.streamlock.net:4443/edutv/edutelevizija/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>EuronewsSerbia.rs</t>
+  </si>
+  <si>
+    <t>Euronews Serbia</t>
+  </si>
+  <si>
+    <t>https://d1ei8ofhgfmkac.cloudfront.net/app-19518-1306/ngrp:QoZfNjsg_all/chunklist_w1302619168_b6256000.m3u8</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>GTV-Gorenjskatelevizija.sl</t>
+  </si>
+  <si>
+    <t>GTV - Gorenjska televizija</t>
+  </si>
+  <si>
+    <t>http://91.220.221.60/gtv_hls/gtv_03.m3u8</t>
+  </si>
+  <si>
+    <t>HRT1.hr</t>
+  </si>
+  <si>
+    <t>HRT 1</t>
+  </si>
+  <si>
+    <t>REFERER MANDATORY</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226139/04.m3u8</t>
+  </si>
+  <si>
+    <t>HRT2.hr</t>
+  </si>
+  <si>
+    <t>HRT 2</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226140/04.m3u8</t>
+  </si>
+  <si>
+    <t>HRT3.hr</t>
+  </si>
+  <si>
+    <t>HRT 3</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226280/04.m3u8</t>
+  </si>
+  <si>
+    <t>HRT4.hr</t>
+  </si>
+  <si>
+    <t>HRT 4</t>
+  </si>
+  <si>
+    <t>http://195.29.70.67/PLTV/88888888/224/3221226281/index.m3u8</t>
+  </si>
+  <si>
+    <t>HrvatskiradioKarlovac.hr</t>
+  </si>
+  <si>
+    <t>HRVATSKI RADIO KARLOVAC</t>
+  </si>
+  <si>
+    <t>https://pool.alter-media.hr:1936/prvikarlovacki/prvikarlovacki/chunklist_w1038836451.m3u8</t>
+  </si>
+  <si>
+    <t>IDJTV.rs</t>
+  </si>
+  <si>
+    <t>IDJ TV</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=hp1400&amp;sp=idjtv&amp;u=idjtv&amp;p=In$trum300na765ta&amp;channel=idjhd</t>
+  </si>
+  <si>
+    <t>K23TV.rs</t>
+  </si>
+  <si>
+    <t>K23 TV</t>
+  </si>
+  <si>
+    <t>daily motion</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=http://www.dailymotion.com/video/x1jztwz</t>
+  </si>
+  <si>
+    <t>KanalM.rs</t>
+  </si>
+  <si>
+    <t>KANAL M</t>
+  </si>
+  <si>
+    <t>http://176.67.210.1/hls/kanalm.m3u8</t>
+  </si>
+  <si>
+    <t>KarolinaTV.rs</t>
+  </si>
+  <si>
+    <t>KAROLINA TV</t>
+  </si>
+  <si>
+    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/f43b4b5e-7e2e-442d-85a0-4b38fd1c1be7/0.m3u8</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE</t>
+  </si>
+  <si>
+    <t>https://moviesphere-roku.amagi.tv/hls/amagi_hls_data_lionsgate-moviesphere-roku-us/CDN/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE (ENGLAND)</t>
+  </si>
+  <si>
+    <t>https://moviesphereuk-samsunguk.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE FREE</t>
+  </si>
+  <si>
+    <t>https://moviesphere-samsung-samsungus.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE HD</t>
+  </si>
+  <si>
+    <t>https://moviesphere-plex.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>MOVIESPHERE UK</t>
+  </si>
+  <si>
+    <t>https://moviesphereuk-rakuten.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>Muzzik.rs</t>
+  </si>
+  <si>
+    <t>MUZZIK</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-6/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK ELECTRO</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a7/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK FLASHBACK</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-8/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>MuzzikJekaSerbia.rs</t>
+  </si>
+  <si>
+    <t>MUZZIK JEKA</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-4/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK MOBA</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-2/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK POPSTAR</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-3/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK RIVIERA</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a5/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MuzzikRockRollSerbia.rs</t>
+  </si>
+  <si>
+    <t>MUZZIK RNR</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-1/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK SENSE</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-7/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK WWM</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-5/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK ZZ TV</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a4/chunklist.m3u8</t>
+  </si>
+  <si>
+    <t>MUZZIK ZZ4000</t>
+  </si>
+  <si>
+    <t>https://muzzik-live.morescreens.com/mts-a6/chunklist.m3u8</t>
+  </si>
+  <si>
     <t>N1BosniaHerzegovina.ba</t>
   </si>
   <si>
@@ -180,12 +435,108 @@
     <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1bos&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
   </si>
   <si>
+    <t>N1Croatia.hr</t>
+  </si>
+  <si>
+    <t>N1 HRV</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1hrv&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
+  </si>
+  <si>
+    <t>N1Serbia.rs</t>
+  </si>
+  <si>
+    <t>N1 SRB</t>
+  </si>
+  <si>
+    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1srp&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
+  </si>
+  <si>
+    <t>PiKanal.rs</t>
+  </si>
+  <si>
+    <t>PI KANAL</t>
+  </si>
+  <si>
+    <t>http://stream.pikanal.rs/pikanal/pgm.m3u8</t>
+  </si>
+  <si>
+    <t>PrugaTV.rs</t>
+  </si>
+  <si>
+    <t>PRUGA TV</t>
+  </si>
+  <si>
+    <t>https://stream.pruga.rs:8443/live/pruga/index.m3u8</t>
+  </si>
+  <si>
+    <t>RakutenTVActionMoviesUK.uk</t>
+  </si>
+  <si>
+    <t>RAKUTEN ACTION MOVIES UK</t>
+  </si>
+  <si>
+    <t>https://rakuten-actionmovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>RakutenTVComedyMoviesUK.uk</t>
+  </si>
+  <si>
+    <t>RAKUTEN COMEDY MOVIES UK</t>
+  </si>
+  <si>
+    <t>https://rakuten-comedymovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>RedTV.rs</t>
+  </si>
+  <si>
+    <t>RED TV</t>
+  </si>
+  <si>
+    <t>https://live.rednet.rs/providus/redtv_multi_hq/index.m3u8</t>
+  </si>
+  <si>
+    <t>ROKU MOVIESPHERE</t>
+  </si>
+  <si>
+    <t>https://moviesphere-roku.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>RTLCroatia.hr</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>https://d1cs5tlhj75jxe.cloudfront.net/rtl/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>RTL2Croatia.hr</t>
+  </si>
+  <si>
+    <t>RTL 2</t>
+  </si>
+  <si>
+    <t>https://d1um9c09e0t5ag.cloudfront.net/rtl2/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>RTLKockica.hr</t>
+  </si>
+  <si>
+    <t>KIDS</t>
+  </si>
+  <si>
+    <t>RTL KOCKICA</t>
+  </si>
+  <si>
+    <t>https://d1rzyyum8t0q1e.cloudfront.net/rtl-kockica/playlist.m3u8</t>
+  </si>
+  <si>
     <t>RTRS</t>
   </si>
   <si>
-    <t>(NOT 24 HOURS)</t>
-  </si>
-  <si>
     <t>geolocked</t>
   </si>
   <si>
@@ -201,6 +552,27 @@
     <t>https://prd-hometv-live-open.spectar.tv/ERO_1_083/576p/chunklist.m3u8</t>
   </si>
   <si>
+    <t>RTVNoviPazar.rs</t>
+  </si>
+  <si>
+    <t>RTV NOVI PAZAR</t>
+  </si>
+  <si>
+    <t>https://rtvnp.rs/hls/rtvnp.m3u8</t>
+  </si>
+  <si>
+    <t>RTVStaraPazova.rs</t>
+  </si>
+  <si>
+    <t>RTV STARA PAZOVA</t>
+  </si>
+  <si>
+    <t>STARA PAZOVA</t>
+  </si>
+  <si>
+    <t>rtmp://bk.ddstream.info:1935/mylive/rtvsp/rtvsp</t>
+  </si>
+  <si>
     <t>RTV USK</t>
   </si>
   <si>
@@ -219,595 +591,208 @@
     <t>http://ip2.xxlservices.com:8081/seharatv/mpegts/mpeg.2ts</t>
   </si>
   <si>
+    <t>SLAVONSKA TV</t>
+  </si>
+  <si>
+    <t>http://89.201.163.244:8080/hls/hdmi.m3u8</t>
+  </si>
+  <si>
+    <t>SOSKanalPlus.rs</t>
+  </si>
+  <si>
+    <t>SOS KANAL PLUS</t>
+  </si>
+  <si>
+    <t>https://53be5ef2d13aa.streamlock.net/soskanalplus/soskanalplus.stream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>STIRR GRAVITAS MOVIES</t>
+  </si>
+  <si>
+    <t>https://gravitas-movies.sinclair.wurl.com/manifest/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>StudioB.rs</t>
+  </si>
+  <si>
+    <t>STUDIO B</t>
+  </si>
+  <si>
+    <t>http://91.148.117.134:1935/studiob/studiob.stream/playlist.m3u8</t>
+  </si>
+  <si>
     <t>SUPERTV</t>
   </si>
   <si>
     <t>https://mirtv.club/live/mirtv/index.m3u8</t>
   </si>
   <si>
+    <t>TDI RADIO TV</t>
+  </si>
+  <si>
+    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/2dbc3630-2d41-4a02-ace8-da279e698b74/0.m3u8</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>ToonamiAftermathEast.us</t>
+  </si>
+  <si>
+    <t>TOONAMI AFTERMATH EAST</t>
+  </si>
+  <si>
+    <t>http://api.toonamiaftermath.com:3000/est/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>ToonamiAftermathMovies.us</t>
+  </si>
+  <si>
+    <t>TOONAMI AFTERMATH MOVIES</t>
+  </si>
+  <si>
+    <t>http://api.toonamiaftermath.com:3000/movies/playlist.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>ToonamiAftermathWest.us</t>
+  </si>
+  <si>
+    <t>TOONAMI AFTERMATH WEST</t>
+  </si>
+  <si>
+    <t>http://api.toonamiaftermath.com:3000/pst/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TREND TV</t>
+  </si>
+  <si>
+    <t>http://185.62.75.22:1935/trend/myStream/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>TV 7</t>
+  </si>
+  <si>
+    <t>https://5a1178b42cc03.streamlock.net/tehnikatv777/tehnikatv777/chunklist_w950220315.m3u8</t>
+  </si>
+  <si>
+    <t>TV AS</t>
+  </si>
+  <si>
+    <t>https://best-str.nettv.cdn.united.cloud/stream?sp=partners&amp;u=partners&amp;p=yN93H7NTrMkx&amp;stream=sp1400&amp;adaptive=false&amp;channel=channel1-srpaac&amp;player=m3u8</t>
+  </si>
+  <si>
+    <t>TVJadran.hr</t>
+  </si>
+  <si>
+    <t>TV Jadran</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x670ug8/live</t>
+  </si>
+  <si>
+    <t>TV KRAGUJEVAC</t>
+  </si>
+  <si>
+    <t>twitch</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/televizijakragujevac</t>
+  </si>
+  <si>
+    <t>TV NOVI PAZAR</t>
+  </si>
+  <si>
+    <t>TV PI PIROT</t>
+  </si>
+  <si>
+    <t>TV PIROT</t>
+  </si>
+  <si>
+    <t>https://5bc45691ca49f.streamlock.net/tvpirot/uzivo/chunklist_w1209443471.m3u8</t>
+  </si>
+  <si>
+    <t>TV SRPSKE DIJASPORE</t>
+  </si>
+  <si>
+    <t>https://live.tsd-tv.com/live/tsd.m3u8</t>
+  </si>
+  <si>
+    <t>TV VALJEVO PLUS</t>
+  </si>
+  <si>
+    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/tvvaljevoplus</t>
+  </si>
+  <si>
+    <t>TVCG1.me</t>
+  </si>
+  <si>
+    <t>TVCG 1</t>
+  </si>
+  <si>
+    <t>http://cdn3.bcdn.rs:1935/cg1/smil:cg1.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TVCG2.me</t>
+  </si>
+  <si>
+    <t>TVCG 2</t>
+  </si>
+  <si>
+    <t>http://cdn3.bcdn.rs:1935/cg2/smil:cg2.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TVCG3.me</t>
+  </si>
+  <si>
+    <t>TVCG 3</t>
+  </si>
+  <si>
+    <t>https://parlament.rtcg.me:1936/pr/smil:parlament.smil/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>TVCGMNE.me</t>
+  </si>
+  <si>
+    <t>TVCG MNE</t>
+  </si>
+  <si>
+    <t>rtmp://rtcg2.videostreaming.rs/rtcg/rtcg.1.stream</t>
+  </si>
+  <si>
+    <t>TVSClassicMovies.us</t>
+  </si>
+  <si>
+    <t>MOVCLASSIC</t>
+  </si>
+  <si>
+    <t>TVS CLASSIC MOVIES</t>
+  </si>
+  <si>
+    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsclassicmovies/index.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
+    <t>TVSNostalgiaMovies.us</t>
+  </si>
+  <si>
+    <t>TVS NOSTALGIA MOVIES</t>
+  </si>
+  <si>
+    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsNostalgiaMovies/index.m3u8?checkedby:iptvcat.com</t>
+  </si>
+  <si>
     <t>TVSLON EXTRA</t>
   </si>
   <si>
     <t>http://31.47.0.130:8082/</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>MOV</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (EN)</t>
-  </si>
-  <si>
-    <t>https://moviesphere-roku.amagi.tv/hls/amagi_hls_data_lionsgate-moviesphere-roku-us/CDN/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (HD) (EN)</t>
-  </si>
-  <si>
-    <t>https://moviesphere-plex.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE ENGLAND</t>
-  </si>
-  <si>
-    <t>https://moviesphereuk-samsunguk.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE FREE</t>
-  </si>
-  <si>
-    <t>https://moviesphere-samsung-samsungus.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>MOVIESPHERE UK</t>
-  </si>
-  <si>
-    <t>https://moviesphereuk-rakuten.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>RakutenTVActionMoviesUK.uk</t>
-  </si>
-  <si>
-    <t>RAKUTEN ACTION MOVIES UK</t>
-  </si>
-  <si>
-    <t>https://rakuten-actionmovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>RakutenTVComedyMoviesUK.uk</t>
-  </si>
-  <si>
-    <t>RAKUTEN COMEDY MOVIES UK</t>
-  </si>
-  <si>
-    <t>https://rakuten-comedymovies-1-eu.rakuten.wurl.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>ROKU MOVIESPHERE</t>
-  </si>
-  <si>
-    <t>https://moviesphere-roku.amagi.tv/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>STIRR GRAVITAS MOVIES</t>
-  </si>
-  <si>
-    <t>https://gravitas-movies.sinclair.wurl.com/manifest/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>CMCTV.hr</t>
-  </si>
-  <si>
-    <t>CMC TV</t>
-  </si>
-  <si>
-    <t>AKA KLAPE I TAMBURE</t>
-  </si>
-  <si>
-    <t>https://stream.cmctv.hr:49998/cmc/live.m3u8</t>
-  </si>
-  <si>
-    <t>HRT1.hr</t>
-  </si>
-  <si>
-    <t>HRT 1</t>
-  </si>
-  <si>
-    <t>REFERER MANDATORY</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226139/04.m3u8</t>
-  </si>
-  <si>
-    <t>HRT2.hr</t>
-  </si>
-  <si>
-    <t>HRT 2</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226140/04.m3u8</t>
-  </si>
-  <si>
-    <t>HRT3.hr</t>
-  </si>
-  <si>
-    <t>HRT 3</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226280/04.m3u8</t>
-  </si>
-  <si>
-    <t>HRT4.hr</t>
-  </si>
-  <si>
-    <t>HRT 4</t>
-  </si>
-  <si>
-    <t>http://195.29.70.67/PLTV/88888888/224/3221226281/index.m3u8</t>
-  </si>
-  <si>
-    <t>HrvatskiradioKarlovac.hr</t>
-  </si>
-  <si>
-    <t>HRVATSKI RADIO KARLOVAC</t>
-  </si>
-  <si>
-    <t>https://pool.alter-media.hr:1936/prvikarlovacki/prvikarlovacki/chunklist_w1038836451.m3u8</t>
-  </si>
-  <si>
-    <t>N1Croatia.hr</t>
-  </si>
-  <si>
-    <t>N1 HRV</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1hrv&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
-  </si>
-  <si>
-    <t>RTLCroatia.hr</t>
-  </si>
-  <si>
-    <t>RTL</t>
-  </si>
-  <si>
-    <t>https://d1cs5tlhj75jxe.cloudfront.net/rtl/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>RTL2Croatia.hr</t>
-  </si>
-  <si>
-    <t>RTL 2</t>
-  </si>
-  <si>
-    <t>https://d1um9c09e0t5ag.cloudfront.net/rtl2/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>RTLKockica.hr</t>
-  </si>
-  <si>
-    <t>KIDS</t>
-  </si>
-  <si>
-    <t>RTL KOCKICA</t>
-  </si>
-  <si>
-    <t>https://d1rzyyum8t0q1e.cloudfront.net/rtl-kockica/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>SLAVONSKA TV</t>
-  </si>
-  <si>
-    <t>http://89.201.163.244:8080/hls/hdmi.m3u8</t>
-  </si>
-  <si>
-    <t>TREND TV</t>
-  </si>
-  <si>
-    <t>http://185.62.75.22:1935/trend/myStream/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVJadran.hr</t>
-  </si>
-  <si>
-    <t>TV Jadran</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (SLOW)</t>
-  </si>
-  <si>
-    <t>daily motion</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.dailymotion.com/video/x670ug8/live</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>TV 7</t>
-  </si>
-  <si>
-    <t>https://5a1178b42cc03.streamlock.net/tehnikatv777/tehnikatv777/chunklist_w950220315.m3u8</t>
-  </si>
-  <si>
-    <t>TVCG1.me</t>
-  </si>
-  <si>
-    <t>TVCG 1</t>
-  </si>
-  <si>
-    <t>http://cdn3.bcdn.rs:1935/cg1/smil:cg1.smil/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVCG2.me</t>
-  </si>
-  <si>
-    <t>TVCG 2</t>
-  </si>
-  <si>
-    <t>http://cdn3.bcdn.rs:1935/cg2/smil:cg2.smil/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVCG3.me</t>
-  </si>
-  <si>
-    <t>TVCG 3</t>
-  </si>
-  <si>
-    <t>https://parlament.rtcg.me:1936/pr/smil:parlament.smil/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVCGMNE.me</t>
-  </si>
-  <si>
-    <t>TVCG MNE</t>
-  </si>
-  <si>
-    <t>rtmp://rtcg2.videostreaming.rs/rtcg/rtcg.1.stream</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>eduTV.rs</t>
-  </si>
-  <si>
-    <t>EDU</t>
-  </si>
-  <si>
-    <t>eduTV</t>
-  </si>
-  <si>
-    <t>https://5aa64ca8b95b8.streamlock.net:4443/edutv/edutelevizija/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>EuronewsSerbia.rs</t>
-  </si>
-  <si>
-    <t>Euronews Serbia</t>
-  </si>
-  <si>
-    <t>https://d1ei8ofhgfmkac.cloudfront.net/app-19518-1306/ngrp:QoZfNjsg_all/chunklist_w1302619168_b6256000.m3u8</t>
-  </si>
-  <si>
-    <t>IDJTV.rs</t>
-  </si>
-  <si>
-    <t>IDJ TV</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=hp1400&amp;sp=idjtv&amp;u=idjtv&amp;p=In$trum300na765ta&amp;channel=idjhd</t>
-  </si>
-  <si>
-    <t>K23TV.rs</t>
-  </si>
-  <si>
-    <t>K23 TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SUBOTICA (SLOW)</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=http://www.dailymotion.com/video/x1jztwz</t>
-  </si>
-  <si>
-    <t>KanalM.rs</t>
-  </si>
-  <si>
-    <t>KANAL M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PARACIN</t>
-  </si>
-  <si>
-    <t>http://176.67.210.1/hls/kanalm.m3u8</t>
-  </si>
-  <si>
-    <t>KarolinaTV.rs</t>
-  </si>
-  <si>
-    <t>KAROLINA TV</t>
-  </si>
-  <si>
-    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/f43b4b5e-7e2e-442d-85a0-4b38fd1c1be7/0.m3u8</t>
-  </si>
-  <si>
-    <t>Muzzik.rs</t>
-  </si>
-  <si>
-    <t>MUZZIK</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-6/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK ELECTRO</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a7/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK FLASHBACK</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-8/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>MuzzikJekaSerbia.rs</t>
-  </si>
-  <si>
-    <t>MUZZIK JEKA</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-4/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK MOBA</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-2/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK POPSTAR</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-3/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK RIVIERA</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a5/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MuzzikRockRollSerbia.rs</t>
-  </si>
-  <si>
-    <t>MUZZIK RNR</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-1/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK SENSE</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-7/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK WWM</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-5/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK ZZ TV</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a4/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>MUZZIK ZZ4000</t>
-  </si>
-  <si>
-    <t>https://muzzik-live.morescreens.com/mts-a6/chunklist.m3u8</t>
-  </si>
-  <si>
-    <t>N1Serbia.rs</t>
-  </si>
-  <si>
-    <t>N1 SRB</t>
-  </si>
-  <si>
-    <t>https://best-str.umn.cdn.united.cloud/stream?stream=sp1400&amp;sp=n1info&amp;channel=n1srp&amp;u=n1info&amp;p=n1Sh4redSecre7iNf0</t>
-  </si>
-  <si>
-    <t>PiKanal.rs</t>
-  </si>
-  <si>
-    <t>PI KANAL</t>
-  </si>
-  <si>
-    <t>http://stream.pikanal.rs/pikanal/pgm.m3u8</t>
-  </si>
-  <si>
-    <t>PrugaTV.rs</t>
-  </si>
-  <si>
-    <t>PRUGA TV</t>
-  </si>
-  <si>
-    <t>https://stream.pruga.rs:8443/live/pruga/index.m3u8</t>
-  </si>
-  <si>
-    <t>RedTV.rs</t>
-  </si>
-  <si>
-    <t>RED TV</t>
-  </si>
-  <si>
-    <t>https://live.rednet.rs/providus/redtv_multi_hq/index.m3u8</t>
-  </si>
-  <si>
-    <t>RTVNoviPazar.rs</t>
-  </si>
-  <si>
-    <t>RTV NOVI PAZAR</t>
-  </si>
-  <si>
-    <t>https://rtvnp.rs/hls/rtvnp.m3u8</t>
-  </si>
-  <si>
-    <t>RTVStaraPazova.rs</t>
-  </si>
-  <si>
-    <t>RTV STARA PAZOVA</t>
-  </si>
-  <si>
-    <t>STARA PAZOVA</t>
-  </si>
-  <si>
-    <t>rtmp://bk.ddstream.info:1935/mylive/rtvsp/rtvsp</t>
-  </si>
-  <si>
-    <t>SOSKanalPlus.rs</t>
-  </si>
-  <si>
-    <t>SOS KANAL PLUS</t>
-  </si>
-  <si>
-    <t>https://53be5ef2d13aa.streamlock.net/soskanalplus/soskanalplus.stream/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>StudioB.rs</t>
-  </si>
-  <si>
-    <t>STUDIO B</t>
-  </si>
-  <si>
-    <t>http://91.148.117.134:1935/studiob/studiob.stream/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TDI RADIO TV</t>
-  </si>
-  <si>
-    <t>https://peer.tdiradio.com/static/streaming-playlists/hls/2dbc3630-2d41-4a02-ace8-da279e698b74/0.m3u8</t>
-  </si>
-  <si>
-    <t>TV AS</t>
-  </si>
-  <si>
-    <t>https://best-str.nettv.cdn.united.cloud/stream?sp=partners&amp;u=partners&amp;p=yN93H7NTrMkx&amp;stream=sp1400&amp;adaptive=false&amp;channel=channel1-srpaac&amp;player=m3u8</t>
-  </si>
-  <si>
-    <t>TV KRAGUJEVAC</t>
-  </si>
-  <si>
-    <t>twitch</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/televizijakragujevac</t>
-  </si>
-  <si>
-    <t>TV NOVI PAZAR</t>
-  </si>
-  <si>
-    <t>TV PI PIROT</t>
-  </si>
-  <si>
-    <t>TV PIROT</t>
-  </si>
-  <si>
-    <t>https://5bc45691ca49f.streamlock.net/tvpirot/uzivo/chunklist_w1209443471.m3u8</t>
-  </si>
-  <si>
-    <t>TV SRPSKE DIJASPORE</t>
-  </si>
-  <si>
-    <t>https://live.tsd-tv.com/live/tsd.m3u8</t>
-  </si>
-  <si>
-    <t>TV VALJEVO PLUS</t>
-  </si>
-  <si>
-    <t>http://free.fullspeed.tv/iptv-query?streaming-ip=https://www.twitch.tv/tvvaljevoplus</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>GTV-Gorenjskatelevizija.sl</t>
-  </si>
-  <si>
-    <t>GTV - Gorenjska televizija</t>
-  </si>
-  <si>
-    <t>http://91.220.221.60/gtv_hls/gtv_03.m3u8</t>
-  </si>
-  <si>
     <t>VESELJAK TV</t>
   </si>
   <si>
     <t>https://stream.veseljak.tv/hls/stream.m3u8</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>ToonamiAftermathEast.us</t>
-  </si>
-  <si>
-    <t>TOONAMI AFTERMATH EAST</t>
-  </si>
-  <si>
-    <t>http://api.toonamiaftermath.com:3000/est/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>ToonamiAftermathMovies.us</t>
-  </si>
-  <si>
-    <t>TOONAMI AFTERMATH MOVIES</t>
-  </si>
-  <si>
-    <t>http://api.toonamiaftermath.com:3000/movies/playlist.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>ToonamiAftermathWest.us</t>
-  </si>
-  <si>
-    <t>TOONAMI AFTERMATH WEST</t>
-  </si>
-  <si>
-    <t>http://api.toonamiaftermath.com:3000/pst/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>TVSClassicMovies.us</t>
-  </si>
-  <si>
-    <t>MOVCLASSIC</t>
-  </si>
-  <si>
-    <t>TVS CLASSIC MOVIES</t>
-  </si>
-  <si>
-    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsclassicmovies/index.m3u8?checkedby:iptvcat.com</t>
-  </si>
-  <si>
-    <t>TVSNostalgiaMovies.us</t>
-  </si>
-  <si>
-    <t>TVS NOSTALGIA MOVIES</t>
-  </si>
-  <si>
-    <t>https://rpn1.bozztv.com/36bay2/gusa-tvsNostalgiaMovies/index.m3u8?checkedby:iptvcat.com</t>
   </si>
   <si>
     <t>ASTRO</t>
@@ -1240,7 +1225,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671483568" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1255,7 +1240,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671483568" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1270,7 +1255,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" fgClr="FABF8F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671483568" fgClr="FABF8F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1285,7 +1270,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1671479146" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1671483568" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -1307,7 +1292,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1671479146" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1671483568" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1329,7 +1314,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1671479146"/>
+          <pm:border xmlns:pm="smNativeData" id="1671483568"/>
         </ext>
       </extLst>
     </border>
@@ -1348,7 +1333,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1671479146"/>
+          <pm:border xmlns:pm="smNativeData" id="1671483568"/>
         </ext>
       </extLst>
     </border>
@@ -1368,10 +1353,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1671479146" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1671483568" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1671479146" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1671483568" count="1">
         <pm:color name="Color 24" rgb="FABF8F"/>
       </pm:colors>
     </ext>
@@ -1638,8 +1623,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultColWidth="14.144144" defaultRowHeight="13.45"/>
@@ -1991,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -2001,7 +1986,7 @@
       </c>
       <c r="G6" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J6&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/N1BosniaHerzegovina.ba.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/CMCTV.hr.png</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -2010,7 +1995,7 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -2019,17 +2004,20 @@
         <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>47</v>
+      <c r="O6" t="s">
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
       </c>
+      <c r="R6" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="T6" t="s">
         <v>31</v>
       </c>
@@ -2040,7 +2028,7 @@
         <v>31</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:23">
@@ -2051,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2059,12 +2047,19 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="G7" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J7&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/eduTV.rs.png</v>
+      </c>
       <c r="H7" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" t="s">
         <v>22</v>
       </c>
@@ -2072,26 +2067,18 @@
         <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>50</v>
+      <c r="O7" t="s">
+        <v>54</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7"/>
       <c r="T7" t="s">
         <v>31</v>
       </c>
@@ -2102,7 +2089,7 @@
         <v>31</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -2113,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2121,12 +2108,19 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
+      <c r="G8" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J8&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/EuronewsSerbia.rs.png</v>
+      </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
       <c r="K8" t="s">
         <v>22</v>
       </c>
@@ -2134,20 +2128,17 @@
         <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>53</v>
+      <c r="O8" t="s">
+        <v>57</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="T8" t="s">
         <v>31</v>
       </c>
@@ -2158,7 +2149,7 @@
         <v>31</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:23">
@@ -2169,7 +2160,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -2177,11 +2168,18 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
+      <c r="G9" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J9&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/GTV-Gorenjskatelevizija.sl.png</v>
+      </c>
       <c r="H9" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -2196,7 +2194,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q9" t="s">
         <v>30</v>
@@ -2211,7 +2209,7 @@
         <v>31</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:23">
@@ -2222,7 +2220,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -2230,11 +2228,18 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
+      <c r="G10" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J10&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT1.hr.png</v>
+      </c>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -2248,12 +2253,18 @@
       <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>58</v>
+      <c r="O10" t="s">
+        <v>64</v>
       </c>
       <c r="Q10" t="s">
         <v>30</v>
       </c>
+      <c r="R10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s">
         <v>31</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>31</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:23">
@@ -2275,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -2283,12 +2294,19 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
+      <c r="G11" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J11&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT2.hr.png</v>
+      </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
       <c r="K11" t="s">
         <v>22</v>
       </c>
@@ -2296,17 +2314,23 @@
         <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>60</v>
+      <c r="O11" t="s">
+        <v>68</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
       </c>
+      <c r="R11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2341,7 @@
         <v>31</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:23">
@@ -2328,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -2336,11 +2360,18 @@
       <c r="F12" t="s">
         <v>23</v>
       </c>
+      <c r="G12" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J12&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT3.hr.png</v>
+      </c>
       <c r="H12" t="s">
         <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -2354,12 +2385,18 @@
       <c r="N12" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>62</v>
+      <c r="O12" t="s">
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
         <v>30</v>
       </c>
+      <c r="R12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s">
         <v>31</v>
       </c>
@@ -2370,7 +2407,7 @@
         <v>31</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:23">
@@ -2381,7 +2418,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -2389,11 +2426,18 @@
       <c r="F13" t="s">
         <v>23</v>
       </c>
+      <c r="G13" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J13&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT4.hr.png</v>
+      </c>
       <c r="H13" t="s">
         <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
       </c>
       <c r="K13" t="s">
         <v>22</v>
@@ -2407,12 +2451,18 @@
       <c r="N13" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>64</v>
+      <c r="O13" t="s">
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
         <v>30</v>
       </c>
+      <c r="R13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s">
         <v>31</v>
       </c>
@@ -2423,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:23">
@@ -2434,7 +2484,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -2442,12 +2492,19 @@
       <c r="F14" t="s">
         <v>23</v>
       </c>
+      <c r="G14" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J14&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HrvatskiradioKarlovac.hr.png</v>
+      </c>
       <c r="H14" t="s">
         <v>22</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
       <c r="K14" t="s">
         <v>22</v>
       </c>
@@ -2455,23 +2512,18 @@
         <v>26</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q14" t="s">
         <v>30</v>
       </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14"/>
       <c r="T14" t="s">
         <v>31</v>
       </c>
@@ -2482,7 +2534,7 @@
         <v>31</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:23">
@@ -2493,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -2501,12 +2553,19 @@
       <c r="F15" t="s">
         <v>23</v>
       </c>
+      <c r="G15" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J15&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/IDJTV.rs.png</v>
+      </c>
       <c r="H15" t="s">
         <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
       </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
       <c r="K15" t="s">
         <v>22</v>
       </c>
@@ -2514,23 +2573,18 @@
         <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>71</v>
+      <c r="O15" t="s">
+        <v>80</v>
       </c>
       <c r="Q15" t="s">
         <v>30</v>
       </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15"/>
       <c r="T15" t="s">
         <v>31</v>
       </c>
@@ -2541,7 +2595,7 @@
         <v>31</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -2552,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -2560,12 +2614,19 @@
       <c r="F16" t="s">
         <v>23</v>
       </c>
+      <c r="G16" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J16&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/K23TV.rs.png</v>
+      </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
       <c r="K16" t="s">
         <v>22</v>
       </c>
@@ -2573,23 +2634,21 @@
         <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>69</v>
+      <c r="O16" t="s">
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
         <v>30</v>
       </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16"/>
       <c r="T16" t="s">
         <v>31</v>
       </c>
@@ -2600,7 +2659,7 @@
         <v>31</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:23">
@@ -2611,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2619,12 +2678,19 @@
       <c r="F17" t="s">
         <v>23</v>
       </c>
+      <c r="G17" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J17&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/KanalM.rs.png</v>
+      </c>
       <c r="H17" t="s">
         <v>22</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
       </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
       <c r="K17" t="s">
         <v>22</v>
       </c>
@@ -2632,23 +2698,18 @@
         <v>26</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N17" t="s">
         <v>28</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Q17" t="s">
         <v>30</v>
       </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17"/>
       <c r="T17" t="s">
         <v>31</v>
       </c>
@@ -2659,7 +2720,7 @@
         <v>31</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:23">
@@ -2670,7 +2731,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -2678,12 +2739,19 @@
       <c r="F18" t="s">
         <v>23</v>
       </c>
+      <c r="G18" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J18&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/KarolinaTV.rs.png</v>
+      </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
       </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
       <c r="K18" t="s">
         <v>22</v>
       </c>
@@ -2691,23 +2759,18 @@
         <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="Q18" t="s">
         <v>30</v>
       </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18"/>
       <c r="T18" t="s">
         <v>31</v>
       </c>
@@ -2718,7 +2781,7 @@
         <v>31</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:23">
@@ -2729,7 +2792,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2743,9 +2806,7 @@
       <c r="I19" t="s">
         <v>24</v>
       </c>
-      <c r="J19" t="s">
-        <v>79</v>
-      </c>
+      <c r="J19"/>
       <c r="K19" t="s">
         <v>22</v>
       </c>
@@ -2753,20 +2814,20 @@
         <v>26</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="Q19" t="s">
         <v>30</v>
       </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s">
         <v>31</v>
       </c>
@@ -2777,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:23">
@@ -2788,7 +2849,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -2802,9 +2863,7 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" t="s">
-        <v>82</v>
-      </c>
+      <c r="J20"/>
       <c r="K20" t="s">
         <v>22</v>
       </c>
@@ -2812,20 +2871,20 @@
         <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
         <v>28</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="Q20" t="s">
         <v>30</v>
       </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:23">
@@ -2847,7 +2906,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
@@ -2868,20 +2927,20 @@
         <v>26</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s">
         <v>28</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="Q21" t="s">
         <v>30</v>
       </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s">
         <v>31</v>
       </c>
@@ -2892,7 +2951,7 @@
         <v>31</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:23">
@@ -2903,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -2917,6 +2976,7 @@
       <c r="I22" t="s">
         <v>24</v>
       </c>
+      <c r="J22"/>
       <c r="K22" t="s">
         <v>22</v>
       </c>
@@ -2924,20 +2984,20 @@
         <v>26</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
         <v>28</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="Q22" t="s">
         <v>30</v>
       </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s">
         <v>31</v>
       </c>
@@ -2948,7 +3008,7 @@
         <v>31</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:23">
@@ -2959,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -2967,19 +3027,14 @@
       <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J23&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/CMCTV.hr.png</v>
-      </c>
+      <c r="G23"/>
       <c r="H23" t="s">
         <v>22</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
-      <c r="J23" t="s">
-        <v>90</v>
-      </c>
+      <c r="J23"/>
       <c r="K23" t="s">
         <v>22</v>
       </c>
@@ -2987,19 +3042,19 @@
         <v>26</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
         <v>28</v>
       </c>
-      <c r="O23" t="s">
-        <v>91</v>
+      <c r="O23" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="Q23" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>92</v>
+      <c r="S23" t="n">
+        <v>5</v>
       </c>
       <c r="T23" t="s">
         <v>31</v>
@@ -3011,7 +3066,7 @@
         <v>31</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:23">
@@ -3022,7 +3077,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -3032,7 +3087,7 @@
       </c>
       <c r="G24" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J24&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT1.hr.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/Muzzik.rs.png</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -3041,7 +3096,7 @@
         <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -3050,23 +3105,21 @@
         <v>26</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N24" t="s">
         <v>28</v>
       </c>
-      <c r="O24" t="s">
-        <v>95</v>
+      <c r="O24" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="Q24" t="s">
         <v>30</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S24"/>
       <c r="T24" t="s">
         <v>31</v>
       </c>
@@ -3077,7 +3130,7 @@
         <v>31</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:23">
@@ -3088,7 +3141,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>22</v>
@@ -3096,19 +3149,14 @@
       <c r="F25" t="s">
         <v>23</v>
       </c>
-      <c r="G25" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J25&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT2.hr.png</v>
-      </c>
+      <c r="G25"/>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
       </c>
-      <c r="J25" t="s">
-        <v>98</v>
-      </c>
+      <c r="J25"/>
       <c r="K25" t="s">
         <v>22</v>
       </c>
@@ -3116,23 +3164,21 @@
         <v>26</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
         <v>28</v>
       </c>
-      <c r="O25" t="s">
-        <v>99</v>
+      <c r="O25" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="Q25" t="s">
         <v>30</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S25"/>
       <c r="T25" t="s">
         <v>31</v>
       </c>
@@ -3143,7 +3189,7 @@
         <v>31</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:23">
@@ -3154,7 +3200,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -3162,19 +3208,14 @@
       <c r="F26" t="s">
         <v>23</v>
       </c>
-      <c r="G26" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J26&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT3.hr.png</v>
-      </c>
+      <c r="G26"/>
       <c r="H26" t="s">
         <v>22</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="J26" t="s">
-        <v>101</v>
-      </c>
+      <c r="J26"/>
       <c r="K26" t="s">
         <v>22</v>
       </c>
@@ -3182,23 +3223,21 @@
         <v>26</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s">
         <v>28</v>
       </c>
-      <c r="O26" t="s">
-        <v>102</v>
+      <c r="O26" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="Q26" t="s">
         <v>30</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S26"/>
       <c r="T26" t="s">
         <v>31</v>
       </c>
@@ -3209,7 +3248,7 @@
         <v>31</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:23">
@@ -3220,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -3228,10 +3267,7 @@
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J27&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HRT4.hr.png</v>
-      </c>
+      <c r="G27"/>
       <c r="H27" t="s">
         <v>22</v>
       </c>
@@ -3239,7 +3275,7 @@
         <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K27" t="s">
         <v>22</v>
@@ -3248,23 +3284,21 @@
         <v>26</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
         <v>28</v>
       </c>
-      <c r="O27" t="s">
-        <v>105</v>
+      <c r="O27" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="Q27" t="s">
         <v>30</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="S27"/>
       <c r="T27" t="s">
         <v>31</v>
       </c>
@@ -3275,7 +3309,7 @@
         <v>31</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:23">
@@ -3286,7 +3320,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
@@ -3294,19 +3328,14 @@
       <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J28&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/HrvatskiradioKarlovac.hr.png</v>
-      </c>
+      <c r="G28"/>
       <c r="H28" t="s">
         <v>22</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" t="s">
-        <v>107</v>
-      </c>
+      <c r="J28"/>
       <c r="K28" t="s">
         <v>22</v>
       </c>
@@ -3320,11 +3349,14 @@
         <v>28</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q28" t="s">
         <v>30</v>
       </c>
+      <c r="R28" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="T28" t="s">
         <v>31</v>
       </c>
@@ -3335,7 +3367,7 @@
         <v>31</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:23">
@@ -3346,7 +3378,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -3354,19 +3386,14 @@
       <c r="F29" t="s">
         <v>23</v>
       </c>
-      <c r="G29" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J29&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/N1Croatia.hr.png</v>
-      </c>
+      <c r="G29"/>
       <c r="H29" t="s">
         <v>22</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
       </c>
-      <c r="J29" t="s">
-        <v>110</v>
-      </c>
+      <c r="J29"/>
       <c r="K29" t="s">
         <v>22</v>
       </c>
@@ -3374,17 +3401,20 @@
         <v>26</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N29" t="s">
         <v>28</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q29" t="s">
         <v>30</v>
       </c>
+      <c r="R29" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="T29" t="s">
         <v>31</v>
       </c>
@@ -3395,7 +3425,7 @@
         <v>31</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:23">
@@ -3406,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -3414,19 +3444,14 @@
       <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="G30" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J30&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTLCroatia.hr.png</v>
-      </c>
+      <c r="G30"/>
       <c r="H30" t="s">
         <v>22</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="J30"/>
       <c r="K30" t="s">
         <v>22</v>
       </c>
@@ -3434,20 +3459,21 @@
         <v>26</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
         <v>28</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q30" t="s">
         <v>30</v>
       </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S30"/>
       <c r="T30" t="s">
         <v>31</v>
       </c>
@@ -3458,7 +3484,7 @@
         <v>31</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:23">
@@ -3469,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -3477,18 +3503,15 @@
       <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="G31" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J31&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTL2Croatia.hr.png</v>
-      </c>
+      <c r="G31"/>
       <c r="H31" t="s">
         <v>22</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>116</v>
+      <c r="J31" t="s">
+        <v>120</v>
       </c>
       <c r="K31" t="s">
         <v>22</v>
@@ -3497,20 +3520,21 @@
         <v>26</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N31" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q31" t="s">
         <v>30</v>
       </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S31"/>
       <c r="T31" t="s">
         <v>31</v>
       </c>
@@ -3521,7 +3545,7 @@
         <v>31</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:23">
@@ -3532,7 +3556,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -3540,19 +3564,14 @@
       <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J32&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTLKockica.hr.png</v>
-      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
         <v>22</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="J32"/>
       <c r="K32" t="s">
         <v>22</v>
       </c>
@@ -3560,20 +3579,21 @@
         <v>26</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N32" t="s">
         <v>28</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q32" t="s">
         <v>30</v>
       </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S32"/>
       <c r="T32" t="s">
         <v>31</v>
       </c>
@@ -3584,7 +3604,7 @@
         <v>31</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:23">
@@ -3595,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -3616,17 +3636,20 @@
         <v>26</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N33" t="s">
         <v>28</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q33" t="s">
         <v>30</v>
       </c>
+      <c r="R33" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="T33" t="s">
         <v>31</v>
       </c>
@@ -3637,7 +3660,7 @@
         <v>31</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="2:23">
@@ -3648,7 +3671,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -3669,17 +3692,21 @@
         <v>26</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N34" t="s">
         <v>28</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s">
         <v>30</v>
       </c>
+      <c r="R34" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="T34" t="s">
         <v>31</v>
       </c>
@@ -3690,7 +3717,7 @@
         <v>31</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:23">
@@ -3701,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
@@ -3709,19 +3736,14 @@
       <c r="F35" t="s">
         <v>23</v>
       </c>
-      <c r="G35" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J35&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVJadran.hr.png</v>
-      </c>
+      <c r="G35"/>
       <c r="H35" t="s">
         <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
       </c>
-      <c r="J35" t="s">
-        <v>127</v>
-      </c>
+      <c r="J35"/>
       <c r="K35" t="s">
         <v>22</v>
       </c>
@@ -3729,34 +3751,31 @@
         <v>26</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N35" t="s">
         <v>28</v>
       </c>
-      <c r="O35" t="s">
-        <v>128</v>
-      </c>
-      <c r="P35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>129</v>
       </c>
       <c r="Q35" t="s">
         <v>30</v>
       </c>
       <c r="R35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" t="s">
+        <v>31</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="T35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35" t="s">
-        <v>32</v>
-      </c>
-      <c r="V35" t="s">
-        <v>31</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:23">
@@ -3767,49 +3786,56 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J36&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/N1BosniaHerzegovina.ba.png</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>30</v>
-      </c>
-      <c r="T36" t="s">
-        <v>31</v>
-      </c>
-      <c r="U36" t="s">
-        <v>32</v>
-      </c>
-      <c r="V36" t="s">
-        <v>31</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:23">
@@ -3820,7 +3846,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -3830,7 +3856,7 @@
       </c>
       <c r="G37" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J37&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCG1.me.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/N1Croatia.hr.png</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
@@ -3839,40 +3865,38 @@
         <v>24</v>
       </c>
       <c r="J37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37"/>
+      <c r="T37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>30</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
-      <c r="T37" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37" t="s">
-        <v>32</v>
-      </c>
-      <c r="V37" t="s">
-        <v>31</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="2:23">
@@ -3883,7 +3907,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -3893,7 +3917,7 @@
       </c>
       <c r="G38" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J38&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCG2.me.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/N1Serbia.rs.png</v>
       </c>
       <c r="H38" t="s">
         <v>22</v>
@@ -3902,40 +3926,38 @@
         <v>24</v>
       </c>
       <c r="J38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N38" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38"/>
+      <c r="T38" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" t="s">
+        <v>31</v>
+      </c>
+      <c r="W38" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>30</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
-      <c r="T38" t="s">
-        <v>31</v>
-      </c>
-      <c r="U38" t="s">
-        <v>32</v>
-      </c>
-      <c r="V38" t="s">
-        <v>31</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="2:23">
@@ -3946,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -3956,7 +3978,7 @@
       </c>
       <c r="G39" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J39&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCG3.me.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/PiKanal.rs.png</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
@@ -3965,7 +3987,7 @@
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
@@ -3980,22 +4002,22 @@
         <v>28</v>
       </c>
       <c r="O39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>30</v>
+      </c>
+      <c r="T39" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>30</v>
-      </c>
-      <c r="T39" t="s">
-        <v>31</v>
-      </c>
-      <c r="U39" t="s">
-        <v>32</v>
-      </c>
-      <c r="V39" t="s">
-        <v>31</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:23">
@@ -4006,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -4016,7 +4038,7 @@
       </c>
       <c r="G40" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J40&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCGMNE.me.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/PrugaTV.rs.png</v>
       </c>
       <c r="H40" t="s">
         <v>22</v>
@@ -4025,7 +4047,7 @@
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
@@ -4040,22 +4062,22 @@
         <v>28</v>
       </c>
       <c r="O40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
+        <v>31</v>
+      </c>
+      <c r="W40" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>30</v>
-      </c>
-      <c r="T40" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40" t="s">
-        <v>32</v>
-      </c>
-      <c r="V40" t="s">
-        <v>31</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" spans="2:23">
@@ -4066,56 +4088,53 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J41&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/eduTV.rs.png</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="Q41" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" t="s">
+        <v>31</v>
+      </c>
+      <c r="W41" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="K41" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N41" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>30</v>
-      </c>
-      <c r="T41" t="s">
-        <v>31</v>
-      </c>
-      <c r="U41" t="s">
-        <v>32</v>
-      </c>
-      <c r="V41" t="s">
-        <v>31</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="42" spans="2:23">
@@ -4126,7 +4145,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
@@ -4134,10 +4153,7 @@
       <c r="F42" t="s">
         <v>23</v>
       </c>
-      <c r="G42" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J42&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/EuronewsSerbia.rs.png</v>
-      </c>
+      <c r="G42"/>
       <c r="H42" t="s">
         <v>22</v>
       </c>
@@ -4145,7 +4161,7 @@
         <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -4154,13 +4170,13 @@
         <v>26</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N42" t="s">
         <v>28</v>
       </c>
-      <c r="O42" t="s">
-        <v>153</v>
+      <c r="O42" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="Q42" t="s">
         <v>30</v>
@@ -4175,7 +4191,7 @@
         <v>31</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:23">
@@ -4186,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -4196,7 +4212,7 @@
       </c>
       <c r="G43" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J43&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/IDJTV.rs.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RedTV.rs.png</v>
       </c>
       <c r="H43" t="s">
         <v>22</v>
@@ -4205,7 +4221,7 @@
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
@@ -4214,17 +4230,20 @@
         <v>26</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N43" t="s">
         <v>28</v>
       </c>
-      <c r="O43" t="s">
-        <v>156</v>
+      <c r="O43" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="Q43" t="s">
         <v>30</v>
       </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s">
         <v>31</v>
       </c>
@@ -4235,7 +4254,7 @@
         <v>31</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="2:23">
@@ -4246,7 +4265,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -4254,19 +4273,14 @@
       <c r="F44" t="s">
         <v>23</v>
       </c>
-      <c r="G44" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J44&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/K23TV.rs.png</v>
-      </c>
+      <c r="G44"/>
       <c r="H44" t="s">
         <v>22</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
       </c>
-      <c r="J44" t="s">
-        <v>158</v>
-      </c>
+      <c r="J44"/>
       <c r="K44" t="s">
         <v>22</v>
       </c>
@@ -4274,23 +4288,17 @@
         <v>26</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="N44" t="s">
         <v>28</v>
       </c>
-      <c r="O44" t="s">
-        <v>159</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>160</v>
+      <c r="O44" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="Q44" t="s">
         <v>30</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="T44" t="s">
         <v>31</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>31</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="2:23">
@@ -4312,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -4322,7 +4330,7 @@
       </c>
       <c r="G45" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J45&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/KanalM.rs.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTLCroatia.hr.png</v>
       </c>
       <c r="H45" t="s">
         <v>22</v>
@@ -4330,8 +4338,8 @@
       <c r="I45" t="s">
         <v>24</v>
       </c>
-      <c r="J45" t="s">
-        <v>162</v>
+      <c r="J45" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
@@ -4340,20 +4348,20 @@
         <v>26</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N45" t="s">
         <v>28</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q45" t="s">
         <v>30</v>
       </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s">
         <v>31</v>
       </c>
@@ -4364,7 +4372,7 @@
         <v>31</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:23">
@@ -4375,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -4385,7 +4393,7 @@
       </c>
       <c r="G46" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J46&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/KarolinaTV.rs.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTL2Croatia.hr.png</v>
       </c>
       <c r="H46" t="s">
         <v>22</v>
@@ -4393,8 +4401,8 @@
       <c r="I46" t="s">
         <v>24</v>
       </c>
-      <c r="J46" t="s">
-        <v>166</v>
+      <c r="J46" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
@@ -4403,17 +4411,20 @@
         <v>26</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N46" t="s">
         <v>28</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q46" t="s">
         <v>30</v>
       </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s">
         <v>31</v>
       </c>
@@ -4424,7 +4435,7 @@
         <v>31</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:23">
@@ -4435,7 +4446,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -4445,7 +4456,7 @@
       </c>
       <c r="G47" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J47&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/Muzzik.rs.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTLKockica.hr.png</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
@@ -4453,8 +4464,8 @@
       <c r="I47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" t="s">
-        <v>169</v>
+      <c r="J47" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
@@ -4463,19 +4474,19 @@
         <v>26</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="N47" t="s">
         <v>28</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q47" t="s">
         <v>30</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>96</v>
+      <c r="S47" t="n">
+        <v>5</v>
       </c>
       <c r="T47" t="s">
         <v>31</v>
@@ -4487,7 +4498,7 @@
         <v>31</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:23">
@@ -4498,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -4519,19 +4530,22 @@
         <v>26</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N48" t="s">
         <v>28</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q48" t="s">
         <v>30</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>96</v>
+        <v>168</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
       </c>
       <c r="T48" t="s">
         <v>31</v>
@@ -4543,7 +4557,7 @@
         <v>31</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:23">
@@ -4554,7 +4568,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -4575,19 +4589,19 @@
         <v>26</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N49" t="s">
         <v>28</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q49" t="s">
         <v>30</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="T49" t="s">
         <v>31</v>
@@ -4599,7 +4613,7 @@
         <v>31</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="2:23">
@@ -4610,7 +4624,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -4618,6 +4632,10 @@
       <c r="F50" t="s">
         <v>23</v>
       </c>
+      <c r="G50" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J50&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTVNoviPazar.rs.png</v>
+      </c>
       <c r="H50" t="s">
         <v>22</v>
       </c>
@@ -4625,7 +4643,7 @@
         <v>24</v>
       </c>
       <c r="J50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K50" t="s">
         <v>22</v>
@@ -4634,20 +4652,17 @@
         <v>26</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N50" t="s">
         <v>28</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q50" t="s">
         <v>30</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="T50" t="s">
         <v>31</v>
       </c>
@@ -4658,7 +4673,7 @@
         <v>31</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="2:23">
@@ -4669,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -4677,12 +4692,19 @@
       <c r="F51" t="s">
         <v>23</v>
       </c>
+      <c r="G51" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J51&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTVStaraPazova.rs.png</v>
+      </c>
       <c r="H51" t="s">
         <v>22</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
       </c>
+      <c r="J51" t="s">
+        <v>176</v>
+      </c>
       <c r="K51" t="s">
         <v>22</v>
       </c>
@@ -4690,31 +4712,31 @@
         <v>26</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N51" t="s">
         <v>28</v>
       </c>
       <c r="O51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" t="s">
+        <v>31</v>
+      </c>
+      <c r="W51" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T51" t="s">
-        <v>31</v>
-      </c>
-      <c r="U51" t="s">
-        <v>32</v>
-      </c>
-      <c r="V51" t="s">
-        <v>31</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="52" spans="2:23">
@@ -4725,7 +4747,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -4746,31 +4768,28 @@
         <v>26</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N52" t="s">
         <v>28</v>
       </c>
       <c r="O52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>30</v>
+      </c>
+      <c r="T52" t="s">
+        <v>31</v>
+      </c>
+      <c r="U52" t="s">
+        <v>32</v>
+      </c>
+      <c r="V52" t="s">
+        <v>31</v>
+      </c>
+      <c r="W52" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T52" t="s">
-        <v>31</v>
-      </c>
-      <c r="U52" t="s">
-        <v>32</v>
-      </c>
-      <c r="V52" t="s">
-        <v>31</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="53" spans="2:23">
@@ -4781,7 +4800,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -4802,31 +4821,28 @@
         <v>26</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N53" t="s">
         <v>28</v>
       </c>
       <c r="O53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" t="s">
+        <v>32</v>
+      </c>
+      <c r="V53" t="s">
+        <v>31</v>
+      </c>
+      <c r="W53" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T53" t="s">
-        <v>31</v>
-      </c>
-      <c r="U53" t="s">
-        <v>32</v>
-      </c>
-      <c r="V53" t="s">
-        <v>31</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" spans="2:23">
@@ -4837,7 +4853,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -4851,9 +4867,7 @@
       <c r="I54" t="s">
         <v>24</v>
       </c>
-      <c r="J54" t="s">
-        <v>185</v>
-      </c>
+      <c r="J54"/>
       <c r="K54" t="s">
         <v>22</v>
       </c>
@@ -4867,14 +4881,11 @@
         <v>28</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q54" t="s">
         <v>30</v>
       </c>
-      <c r="R54" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="T54" t="s">
         <v>31</v>
       </c>
@@ -4885,7 +4896,7 @@
         <v>31</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="2:23">
@@ -4896,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -4917,20 +4928,17 @@
         <v>26</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N55" t="s">
         <v>28</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q55" t="s">
         <v>30</v>
       </c>
-      <c r="R55" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="T55" t="s">
         <v>31</v>
       </c>
@@ -4941,7 +4949,7 @@
         <v>31</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:23">
@@ -4952,7 +4960,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -4960,12 +4968,19 @@
       <c r="F56" t="s">
         <v>23</v>
       </c>
+      <c r="G56" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J56&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/SOSKanalPlus.rs.png</v>
+      </c>
       <c r="H56" t="s">
         <v>22</v>
       </c>
       <c r="I56" t="s">
         <v>24</v>
       </c>
+      <c r="J56" t="s">
+        <v>188</v>
+      </c>
       <c r="K56" t="s">
         <v>22</v>
       </c>
@@ -4973,31 +4988,28 @@
         <v>26</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N56" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>30</v>
+      </c>
+      <c r="T56" t="s">
+        <v>31</v>
+      </c>
+      <c r="U56" t="s">
+        <v>32</v>
+      </c>
+      <c r="V56" t="s">
+        <v>31</v>
+      </c>
+      <c r="W56" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T56" t="s">
-        <v>31</v>
-      </c>
-      <c r="U56" t="s">
-        <v>32</v>
-      </c>
-      <c r="V56" t="s">
-        <v>31</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:23">
@@ -5008,7 +5020,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -5029,32 +5041,28 @@
         <v>26</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="N57" t="s">
         <v>28</v>
       </c>
       <c r="O57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>30</v>
+      </c>
+      <c r="T57" t="s">
+        <v>31</v>
+      </c>
+      <c r="U57" t="s">
+        <v>32</v>
+      </c>
+      <c r="V57" t="s">
+        <v>31</v>
+      </c>
+      <c r="W57" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T57" t="s">
-        <v>31</v>
-      </c>
-      <c r="U57" t="s">
-        <v>32</v>
-      </c>
-      <c r="V57" t="s">
-        <v>31</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="58" spans="2:23">
@@ -5065,7 +5073,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -5073,12 +5081,19 @@
       <c r="F58" t="s">
         <v>23</v>
       </c>
+      <c r="G58" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J58&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/StudioB.rs.png</v>
+      </c>
       <c r="H58" t="s">
         <v>22</v>
       </c>
       <c r="I58" t="s">
         <v>24</v>
       </c>
+      <c r="J58" t="s">
+        <v>193</v>
+      </c>
       <c r="K58" t="s">
         <v>22</v>
       </c>
@@ -5086,7 +5101,7 @@
         <v>26</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N58" t="s">
         <v>28</v>
@@ -5097,9 +5112,6 @@
       <c r="Q58" t="s">
         <v>30</v>
       </c>
-      <c r="R58" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="T58" t="s">
         <v>31</v>
       </c>
@@ -5121,7 +5133,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
@@ -5129,48 +5141,43 @@
       <c r="F59" t="s">
         <v>23</v>
       </c>
-      <c r="G59" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J59&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/N1Serbia.rs.png</v>
-      </c>
+      <c r="G59"/>
       <c r="H59" t="s">
         <v>22</v>
       </c>
       <c r="I59" t="s">
         <v>24</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59"/>
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K59" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" t="s">
-        <v>26</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O59" s="1" t="s">
+      <c r="Q59" t="s">
+        <v>30</v>
+      </c>
+      <c r="T59" t="s">
+        <v>31</v>
+      </c>
+      <c r="U59" t="s">
+        <v>32</v>
+      </c>
+      <c r="V59" t="s">
+        <v>31</v>
+      </c>
+      <c r="W59" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>30</v>
-      </c>
-      <c r="T59" t="s">
-        <v>31</v>
-      </c>
-      <c r="U59" t="s">
-        <v>32</v>
-      </c>
-      <c r="V59" t="s">
-        <v>31</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="60" spans="2:23">
@@ -5181,7 +5188,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
@@ -5189,48 +5196,43 @@
       <c r="F60" t="s">
         <v>23</v>
       </c>
-      <c r="G60" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J60&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/PiKanal.rs.png</v>
-      </c>
+      <c r="G60"/>
       <c r="H60" t="s">
         <v>22</v>
       </c>
       <c r="I60" t="s">
         <v>24</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60"/>
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>30</v>
+      </c>
+      <c r="T60" t="s">
+        <v>31</v>
+      </c>
+      <c r="U60" t="s">
+        <v>32</v>
+      </c>
+      <c r="V60" t="s">
+        <v>31</v>
+      </c>
+      <c r="W60" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="K60" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" t="s">
-        <v>26</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N60" t="s">
-        <v>28</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>30</v>
-      </c>
-      <c r="T60" t="s">
-        <v>31</v>
-      </c>
-      <c r="U60" t="s">
-        <v>32</v>
-      </c>
-      <c r="V60" t="s">
-        <v>31</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:23">
@@ -5241,7 +5243,7 @@
         <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
@@ -5249,10 +5251,7 @@
       <c r="F61" t="s">
         <v>23</v>
       </c>
-      <c r="G61" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J61&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/PrugaTV.rs.png</v>
-      </c>
+      <c r="G61"/>
       <c r="H61" t="s">
         <v>22</v>
       </c>
@@ -5260,37 +5259,40 @@
         <v>24</v>
       </c>
       <c r="J61" t="s">
+        <v>201</v>
+      </c>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K61" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" t="s">
-        <v>26</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N61" t="s">
-        <v>28</v>
-      </c>
-      <c r="O61" s="1" t="s">
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s">
+        <v>31</v>
+      </c>
+      <c r="U61" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" t="s">
+        <v>31</v>
+      </c>
+      <c r="W61" t="s">
         <v>203</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>30</v>
-      </c>
-      <c r="T61" t="s">
-        <v>31</v>
-      </c>
-      <c r="U61" t="s">
-        <v>32</v>
-      </c>
-      <c r="V61" t="s">
-        <v>31</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="62" spans="2:23">
@@ -5301,7 +5303,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -5309,10 +5311,7 @@
       <c r="F62" t="s">
         <v>23</v>
       </c>
-      <c r="G62" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J62&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RedTV.rs.png</v>
-      </c>
+      <c r="G62"/>
       <c r="H62" t="s">
         <v>22</v>
       </c>
@@ -5320,22 +5319,22 @@
         <v>24</v>
       </c>
       <c r="J62" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="K62" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" t="s">
-        <v>26</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N62" t="s">
-        <v>28</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="Q62" t="s">
         <v>30</v>
@@ -5353,7 +5352,7 @@
         <v>31</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:23">
@@ -5364,7 +5363,7 @@
         <v>20</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -5372,10 +5371,7 @@
       <c r="F63" t="s">
         <v>23</v>
       </c>
-      <c r="G63" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J63&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTVNoviPazar.rs.png</v>
-      </c>
+      <c r="G63"/>
       <c r="H63" t="s">
         <v>22</v>
       </c>
@@ -5383,37 +5379,40 @@
         <v>24</v>
       </c>
       <c r="J63" t="s">
+        <v>207</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N63" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K63" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" t="s">
-        <v>26</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N63" t="s">
-        <v>28</v>
-      </c>
-      <c r="O63" s="1" t="s">
+      <c r="Q63" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s">
+        <v>31</v>
+      </c>
+      <c r="U63" t="s">
+        <v>32</v>
+      </c>
+      <c r="V63" t="s">
+        <v>31</v>
+      </c>
+      <c r="W63" t="s">
         <v>209</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>30</v>
-      </c>
-      <c r="T63" t="s">
-        <v>31</v>
-      </c>
-      <c r="U63" t="s">
-        <v>32</v>
-      </c>
-      <c r="V63" t="s">
-        <v>31</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="64" spans="2:23">
@@ -5424,7 +5423,7 @@
         <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -5432,19 +5431,14 @@
       <c r="F64" t="s">
         <v>23</v>
       </c>
-      <c r="G64" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J64&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/RTVStaraPazova.rs.png</v>
-      </c>
+      <c r="G64"/>
       <c r="H64" t="s">
         <v>22</v>
       </c>
       <c r="I64" t="s">
         <v>24</v>
       </c>
-      <c r="J64" t="s">
-        <v>211</v>
-      </c>
+      <c r="J64"/>
       <c r="K64" t="s">
         <v>22</v>
       </c>
@@ -5458,14 +5452,11 @@
         <v>28</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q64" t="s">
         <v>30</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="T64" t="s">
         <v>31</v>
       </c>
@@ -5476,7 +5467,7 @@
         <v>31</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:23">
@@ -5487,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -5495,19 +5486,14 @@
       <c r="F65" t="s">
         <v>23</v>
       </c>
-      <c r="G65" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J65&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/SOSKanalPlus.rs.png</v>
-      </c>
+      <c r="G65"/>
       <c r="H65" t="s">
         <v>22</v>
       </c>
       <c r="I65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" t="s">
-        <v>215</v>
-      </c>
+      <c r="J65"/>
       <c r="K65" t="s">
         <v>22</v>
       </c>
@@ -5521,7 +5507,7 @@
         <v>28</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q65" t="s">
         <v>30</v>
@@ -5536,7 +5522,7 @@
         <v>31</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="2:23">
@@ -5547,7 +5533,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -5555,19 +5541,14 @@
       <c r="F66" t="s">
         <v>23</v>
       </c>
-      <c r="G66" t="str">
-        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J66&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/StudioB.rs.png</v>
-      </c>
+      <c r="G66"/>
       <c r="H66" t="s">
         <v>22</v>
       </c>
       <c r="I66" t="s">
         <v>24</v>
       </c>
-      <c r="J66" t="s">
-        <v>218</v>
-      </c>
+      <c r="J66"/>
       <c r="K66" t="s">
         <v>22</v>
       </c>
@@ -5581,7 +5562,7 @@
         <v>28</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q66" t="s">
         <v>30</v>
@@ -5596,7 +5577,7 @@
         <v>31</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="2:23">
@@ -5607,7 +5588,7 @@
         <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -5615,12 +5596,19 @@
       <c r="F67" t="s">
         <v>23</v>
       </c>
+      <c r="G67" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J67&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVJadran.hr.png</v>
+      </c>
       <c r="H67" t="s">
         <v>22</v>
       </c>
       <c r="I67" t="s">
         <v>24</v>
       </c>
+      <c r="J67" t="s">
+        <v>217</v>
+      </c>
       <c r="K67" t="s">
         <v>22</v>
       </c>
@@ -5628,17 +5616,20 @@
         <v>26</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N67" t="s">
         <v>28</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>221</v>
+      <c r="O67" t="s">
+        <v>218</v>
       </c>
       <c r="Q67" t="s">
         <v>30</v>
       </c>
+      <c r="R67" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="T67" t="s">
         <v>31</v>
       </c>
@@ -5649,7 +5640,7 @@
         <v>31</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="2:23">
@@ -5660,7 +5651,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -5687,11 +5678,14 @@
         <v>28</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q68" t="s">
         <v>30</v>
       </c>
+      <c r="R68" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="T68" t="s">
         <v>31</v>
       </c>
@@ -5702,7 +5696,7 @@
         <v>31</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="2:23">
@@ -5713,7 +5707,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -5740,17 +5734,11 @@
         <v>28</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="Q69" t="s">
         <v>30</v>
       </c>
-      <c r="R69" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="T69" t="s">
         <v>31</v>
       </c>
@@ -5761,7 +5749,7 @@
         <v>31</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="2:23">
@@ -5772,7 +5760,7 @@
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -5799,7 +5787,7 @@
         <v>28</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q70" t="s">
         <v>30</v>
@@ -5814,7 +5802,7 @@
         <v>31</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="2:23">
@@ -5825,7 +5813,7 @@
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -5852,7 +5840,7 @@
         <v>28</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q71" t="s">
         <v>30</v>
@@ -5867,7 +5855,7 @@
         <v>31</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="2:23">
@@ -5878,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -5905,7 +5893,7 @@
         <v>28</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q72" t="s">
         <v>30</v>
@@ -5920,7 +5908,7 @@
         <v>31</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="2:23">
@@ -5931,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -5958,11 +5946,14 @@
         <v>28</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q73" t="s">
         <v>30</v>
       </c>
+      <c r="R73" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="T73" t="s">
         <v>31</v>
       </c>
@@ -5973,7 +5964,7 @@
         <v>31</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="2:23">
@@ -5984,7 +5975,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
@@ -5992,11 +5983,18 @@
       <c r="F74" t="s">
         <v>23</v>
       </c>
+      <c r="G74" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J74&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCG1.me.png</v>
+      </c>
       <c r="H74" t="s">
         <v>22</v>
       </c>
       <c r="I74" t="s">
         <v>24</v>
+      </c>
+      <c r="J74" t="s">
+        <v>231</v>
       </c>
       <c r="K74" t="s">
         <v>22</v>
@@ -6010,17 +6008,14 @@
       <c r="N74" t="s">
         <v>28</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>129</v>
+      <c r="O74" t="s">
+        <v>232</v>
       </c>
       <c r="Q74" t="s">
         <v>30</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>226</v>
+      <c r="S74" t="n">
+        <v>4</v>
       </c>
       <c r="T74" t="s">
         <v>31</v>
@@ -6032,7 +6027,7 @@
         <v>31</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="2:23">
@@ -6043,7 +6038,7 @@
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -6053,7 +6048,7 @@
       </c>
       <c r="G75" t="str">
         <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J75&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/GTV-Gorenjskatelevizija.sl.png</v>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCG2.me.png</v>
       </c>
       <c r="H75" t="s">
         <v>22</v>
@@ -6062,7 +6057,7 @@
         <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K75" t="s">
         <v>22</v>
@@ -6076,12 +6071,15 @@
       <c r="N75" t="s">
         <v>28</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>238</v>
+      <c r="O75" t="s">
+        <v>235</v>
       </c>
       <c r="Q75" t="s">
         <v>30</v>
       </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
       <c r="T75" t="s">
         <v>31</v>
       </c>
@@ -6092,7 +6090,7 @@
         <v>31</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="2:23">
@@ -6103,7 +6101,7 @@
         <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -6111,12 +6109,19 @@
       <c r="F76" t="s">
         <v>23</v>
       </c>
+      <c r="G76" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J76&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCG3.me.png</v>
+      </c>
       <c r="H76" t="s">
         <v>22</v>
       </c>
       <c r="I76" t="s">
         <v>24</v>
       </c>
+      <c r="J76" t="s">
+        <v>237</v>
+      </c>
       <c r="K76" t="s">
         <v>22</v>
       </c>
@@ -6124,13 +6129,13 @@
         <v>26</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N76" t="s">
         <v>28</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q76" t="s">
         <v>30</v>
@@ -6145,7 +6150,7 @@
         <v>31</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="2:23">
@@ -6156,58 +6161,57 @@
         <v>20</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="str">
+        <f>"https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/"&amp;J77&amp;".png"</f>
+        <v>https://raw.githubusercontent.com/dbojan/free-iptv-balkan-plus/main/tvg-logo/TVCGMNE.me.png</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" t="s">
+        <v>240</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N77" t="s">
+        <v>28</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>30</v>
+      </c>
+      <c r="S77"/>
+      <c r="T77" t="s">
+        <v>31</v>
+      </c>
+      <c r="U77" t="s">
+        <v>32</v>
+      </c>
+      <c r="V77" t="s">
+        <v>31</v>
+      </c>
+      <c r="W77" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" t="s">
-        <v>243</v>
-      </c>
-      <c r="K77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" t="s">
-        <v>26</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N77" t="s">
-        <v>28</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>30</v>
-      </c>
-      <c r="S77" t="n">
-        <v>5</v>
-      </c>
-      <c r="T77" t="s">
-        <v>31</v>
-      </c>
-      <c r="U77" t="s">
-        <v>32</v>
-      </c>
-      <c r="V77" t="s">
-        <v>31</v>
-      </c>
-      <c r="W77" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="78" spans="2:23">
@@ -6218,7 +6222,7 @@
         <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -6233,43 +6237,38 @@
         <v>24</v>
       </c>
       <c r="J78" t="s">
+        <v>243</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N78" t="s">
+        <v>28</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>30</v>
+      </c>
+      <c r="S78"/>
+      <c r="T78" t="s">
+        <v>31</v>
+      </c>
+      <c r="U78" t="s">
+        <v>32</v>
+      </c>
+      <c r="V78" t="s">
+        <v>31</v>
+      </c>
+      <c r="W78" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" t="s">
-        <v>26</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N78" t="s">
-        <v>28</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>30</v>
-      </c>
-      <c r="S78" t="n">
-        <v>5</v>
-      </c>
-      <c r="T78" t="s">
-        <v>31</v>
-      </c>
-      <c r="U78" t="s">
-        <v>32</v>
-      </c>
-      <c r="V78" t="s">
-        <v>31</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="79" spans="2:23">
@@ -6280,7 +6279,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -6295,43 +6294,38 @@
         <v>24</v>
       </c>
       <c r="J79" t="s">
+        <v>247</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>30</v>
+      </c>
+      <c r="S79"/>
+      <c r="T79" t="s">
+        <v>31</v>
+      </c>
+      <c r="U79" t="s">
+        <v>32</v>
+      </c>
+      <c r="V79" t="s">
+        <v>31</v>
+      </c>
+      <c r="W79" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="K79" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" t="s">
-        <v>26</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N79" t="s">
-        <v>28</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>30</v>
-      </c>
-      <c r="S79" t="n">
-        <v>5</v>
-      </c>
-      <c r="T79" t="s">
-        <v>31</v>
-      </c>
-      <c r="U79" t="s">
-        <v>32</v>
-      </c>
-      <c r="V79" t="s">
-        <v>31</v>
-      </c>
-      <c r="W79" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="80" spans="2:23">
@@ -6342,7 +6336,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -6356,9 +6350,7 @@
       <c r="I80" t="s">
         <v>24</v>
       </c>
-      <c r="J80" t="s">
-        <v>252</v>
-      </c>
+      <c r="J80"/>
       <c r="K80" t="s">
         <v>22</v>
       </c>
@@ -6366,16 +6358,13 @@
         <v>26</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="N80" t="s">
         <v>28</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="Q80" t="s">
         <v>30</v>
@@ -6390,7 +6379,7 @@
         <v>31</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="2:23">
@@ -6401,7 +6390,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -6415,9 +6404,7 @@
       <c r="I81" t="s">
         <v>24</v>
       </c>
-      <c r="J81" t="s">
-        <v>256</v>
-      </c>
+      <c r="J81"/>
       <c r="K81" t="s">
         <v>22</v>
       </c>
@@ -6425,31 +6412,28 @@
         <v>26</v>
       </c>
       <c r="M81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>30</v>
+      </c>
+      <c r="T81" t="s">
+        <v>31</v>
+      </c>
+      <c r="U81" t="s">
+        <v>32</v>
+      </c>
+      <c r="V81" t="s">
+        <v>31</v>
+      </c>
+      <c r="W81" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="N81" t="s">
-        <v>28</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>30</v>
-      </c>
-      <c r="T81" t="s">
-        <v>31</v>
-      </c>
-      <c r="U81" t="s">
-        <v>32</v>
-      </c>
-      <c r="V81" t="s">
-        <v>31</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="82" spans="23:23">
@@ -6457,14 +6441,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD81">
-    <sortState ref="D2:D81">
-      <sortCondition ref="D1:D81"/>
+    <sortState ref="O2:O81">
+      <sortCondition ref="O1:O81"/>
     </sortState>
   </autoFilter>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671483568" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6473,16 +6457,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671483568" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6509,49 +6493,49 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6559,38 +6543,38 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6598,24 +6582,24 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6623,113 +6607,113 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6737,108 +6721,108 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -6849,7 +6833,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -6864,13 +6848,13 @@
         <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I28" t="s">
         <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L28" t="s">
         <v>31</v>
@@ -6882,7 +6866,7 @@
         <v>31</v>
       </c>
       <c r="O28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -6893,7 +6877,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -6902,22 +6886,22 @@
         <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="G29" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I29" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K29" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L29" t="s">
         <v>31</v>
@@ -6929,7 +6913,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -6940,7 +6924,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -6955,14 +6939,14 @@
         <v>28</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J30" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s">
         <v>31</v>
@@ -6974,7 +6958,7 @@
         <v>31</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -7000,13 +6984,13 @@
         <v>28</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J31" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M31" t="s">
         <v>31</v>
@@ -7018,7 +7002,7 @@
         <v>31</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -7029,7 +7013,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
         <v>22</v>
@@ -7044,16 +7028,16 @@
         <v>28</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J32" t="s">
         <v>30</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M32" t="s">
         <v>31</v>
@@ -7065,7 +7049,7 @@
         <v>31</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -7076,7 +7060,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -7091,16 +7075,16 @@
         <v>28</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J33" t="s">
         <v>30</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M33" t="s">
         <v>31</v>
@@ -7112,7 +7096,7 @@
         <v>31</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="2:25">
@@ -7123,7 +7107,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -7142,7 +7126,7 @@
         <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -7157,17 +7141,17 @@
         <v>28</v>
       </c>
       <c r="P34" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" t="s">
         <v>30</v>
       </c>
       <c r="S34" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="V34" t="s">
         <v>31</v>
@@ -7179,7 +7163,7 @@
         <v>31</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="6:29">
@@ -7190,7 +7174,7 @@
         <v>20</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -7217,14 +7201,14 @@
         <v>28</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" t="s">
         <v>30</v>
       </c>
       <c r="W35" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Z35" t="s">
@@ -7237,7 +7221,7 @@
         <v>31</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7245,7 +7229,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671483568" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7254,16 +7238,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671483568" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7287,13 +7271,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>40</v>
@@ -7301,93 +7285,93 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671483568" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7396,16 +7380,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671483568" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7429,24 +7413,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -7454,13 +7438,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -7468,13 +7452,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -7482,13 +7466,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -7496,13 +7480,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -7510,13 +7494,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -7524,23 +7508,23 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671483568" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7549,16 +7533,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671483568" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7579,20 +7563,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1671479146" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1671483568" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7601,16 +7585,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1671479146" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1671479146" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1671483568" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1671483568" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671479146" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1671483568" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
